--- a/sriramModel-nelson-atypical-patientID_19-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_19-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.368282961339942</v>
+        <v>3.368080311699261</v>
       </c>
       <c r="C2">
-        <v>3.36017469628928</v>
+        <v>3.366894300426181</v>
       </c>
       <c r="D2">
-        <v>3.367293174771913</v>
+        <v>3.36664613161346</v>
       </c>
       <c r="E2">
-        <v>3.367287555930185</v>
+        <v>3.368659680949976</v>
       </c>
       <c r="F2">
-        <v>3.367891188919566</v>
+        <v>3.365020631629059</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.436006118969705</v>
+        <v>3.43192302898597</v>
       </c>
       <c r="C3">
-        <v>3.418746624276253</v>
+        <v>3.433468754420931</v>
       </c>
       <c r="D3">
-        <v>3.434165854801216</v>
+        <v>3.432320935321504</v>
       </c>
       <c r="E3">
-        <v>3.435425267853358</v>
+        <v>3.433092592658054</v>
       </c>
       <c r="F3">
-        <v>3.436142317083315</v>
+        <v>3.426538709239237</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.503356929192782</v>
+        <v>3.491762852425434</v>
       </c>
       <c r="C4">
-        <v>3.475674740868374</v>
+        <v>3.500192290262816</v>
       </c>
       <c r="D4">
-        <v>3.500551493588508</v>
+        <v>3.49753702907457</v>
       </c>
       <c r="E4">
-        <v>3.505037039154932</v>
+        <v>3.493531294421151</v>
       </c>
       <c r="F4">
-        <v>3.505140695901949</v>
+        <v>3.484774757306328</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.570265201788033</v>
+        <v>3.547822705522168</v>
       </c>
       <c r="C5">
-        <v>3.530922628168752</v>
+        <v>3.567386571830088</v>
       </c>
       <c r="D5">
-        <v>3.566275611720763</v>
+        <v>3.562698395708189</v>
       </c>
       <c r="E5">
-        <v>3.576221290050726</v>
+        <v>3.550196668037524</v>
       </c>
       <c r="F5">
-        <v>3.574658240727964</v>
+        <v>3.539934454183664</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.636393328358002</v>
+        <v>3.600314644336814</v>
       </c>
       <c r="C6">
-        <v>3.584458369766664</v>
+        <v>3.634912875311629</v>
       </c>
       <c r="D6">
-        <v>3.631046433376752</v>
+        <v>3.627941242761124</v>
       </c>
       <c r="E6">
-        <v>3.647376219698923</v>
+        <v>3.603298739309886</v>
       </c>
       <c r="F6">
-        <v>3.643752974946806</v>
+        <v>3.59220918951612</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.701222786185795</v>
+        <v>3.649440305121979</v>
       </c>
       <c r="C7">
-        <v>3.636254223155613</v>
+        <v>3.701806652028358</v>
       </c>
       <c r="D7">
-        <v>3.694483554702398</v>
+        <v>3.692890676908758</v>
       </c>
       <c r="E7">
-        <v>3.716114871732793</v>
+        <v>3.653037238259676</v>
       </c>
       <c r="F7">
-        <v>3.711211467786923</v>
+        <v>3.641777111651896</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.764205732798059</v>
+        <v>3.695391377130928</v>
       </c>
       <c r="C8">
-        <v>3.686286638184635</v>
+        <v>3.766715176147561</v>
       </c>
       <c r="D8">
-        <v>3.756182216204591</v>
+        <v>3.756656545415923</v>
       </c>
       <c r="E8">
-        <v>3.781433830296782</v>
+        <v>3.699602120885086</v>
       </c>
       <c r="F8">
-        <v>3.776120008242552</v>
+        <v>3.68880427466819</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.824893289159741</v>
+        <v>3.738350133924435</v>
       </c>
       <c r="C9">
-        <v>3.734536203471745</v>
+        <v>3.828761108356125</v>
       </c>
       <c r="D9">
-        <v>3.815783452014501</v>
+        <v>3.818294431456793</v>
       </c>
       <c r="E9">
-        <v>3.843217040203828</v>
+        <v>3.74317401598819</v>
       </c>
       <c r="F9">
-        <v>3.838012463798</v>
+        <v>3.733445320560804</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.882987520283668</v>
+        <v>3.778489894626969</v>
       </c>
       <c r="C10">
-        <v>3.780987568864624</v>
+        <v>3.887636007452639</v>
       </c>
       <c r="D10">
-        <v>3.873018246281879</v>
+        <v>3.877209568741783</v>
       </c>
       <c r="E10">
-        <v>3.901572474465246</v>
+        <v>3.783924321673376</v>
       </c>
       <c r="F10">
-        <v>3.896733450194262</v>
+        <v>3.775844158435414</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.938331018308074</v>
+        <v>3.815975452437928</v>
       </c>
       <c r="C11">
-        <v>3.825629373847322</v>
+        <v>3.94331918691543</v>
       </c>
       <c r="D11">
-        <v>3.927717253358211</v>
+        <v>3.933160870076397</v>
       </c>
       <c r="E11">
-        <v>3.956651236498466</v>
+        <v>3.822016133951058</v>
       </c>
       <c r="F11">
-        <v>3.952290212852587</v>
+        <v>3.816134736498016</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.990871527872749</v>
+        <v>3.850963490137677</v>
       </c>
       <c r="C12">
-        <v>3.868454188074096</v>
+        <v>3.995898623761831</v>
       </c>
       <c r="D12">
-        <v>3.97979772073147</v>
+        <v>3.986113521645682</v>
       </c>
       <c r="E12">
-        <v>4.008608642999177</v>
+        <v>3.857604683517222</v>
       </c>
       <c r="F12">
-        <v>4.00476516520492</v>
+        <v>3.854441836826833</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.040626458843301</v>
+        <v>3.883603051229015</v>
       </c>
       <c r="C13">
-        <v>3.909458457598117</v>
+        <v>4.045498463920994</v>
       </c>
       <c r="D13">
-        <v>4.029242425660074</v>
+        <v>4.036129627575606</v>
       </c>
       <c r="E13">
-        <v>4.057595537892102</v>
+        <v>3.890837557882289</v>
       </c>
       <c r="F13">
-        <v>4.05427271902674</v>
+        <v>3.890881700161341</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.087655957139159</v>
+        <v>3.914035566638811</v>
       </c>
       <c r="C14">
-        <v>3.948642443551935</v>
+        <v>4.09225247470343</v>
       </c>
       <c r="D14">
-        <v>4.076079651844959</v>
+        <v>4.083312192367977</v>
       </c>
       <c r="E14">
-        <v>4.103756323733129</v>
+        <v>3.921854960301926</v>
       </c>
       <c r="F14">
-        <v>4.100939096629506</v>
+        <v>3.925562544670946</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.132044814925506</v>
+        <v>3.942395623166411</v>
       </c>
       <c r="C15">
-        <v>3.986010164462826</v>
+        <v>4.136294286292991</v>
       </c>
       <c r="D15">
-        <v>4.120367414285874</v>
+        <v>4.127779560251219</v>
       </c>
       <c r="E15">
-        <v>4.14722866354129</v>
+        <v>3.950790117652154</v>
       </c>
       <c r="F15">
-        <v>4.144892973812396</v>
+        <v>3.958585110173082</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.173890977786425</v>
+        <v>3.968811258994115</v>
       </c>
       <c r="C16">
-        <v>4.021569341443367</v>
+        <v>4.177753729909226</v>
       </c>
       <c r="D16">
-        <v>4.16218221479512</v>
+        <v>4.169653998323337</v>
       </c>
       <c r="E16">
-        <v>4.188143607848167</v>
+        <v>3.977769702714366</v>
       </c>
       <c r="F16">
-        <v>4.186261155460013</v>
+        <v>3.990043215269843</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.2132984786227</v>
+        <v>3.993404196534016</v>
       </c>
       <c r="C17">
-        <v>4.055331337435397</v>
+        <v>4.216755559689302</v>
       </c>
       <c r="D17">
-        <v>4.201611306555002</v>
+        <v>4.209056579952021</v>
       </c>
       <c r="E17">
-        <v>4.226625857404568</v>
+        <v>4.002914127340752</v>
       </c>
       <c r="F17">
-        <v>4.225166583268183</v>
+        <v>4.020024230600124</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.250373152368423</v>
+        <v>4.016290090149147</v>
       </c>
       <c r="C18">
-        <v>4.087311086016556</v>
+        <v>4.253419021010538</v>
       </c>
       <c r="D18">
-        <v>4.238747541599099</v>
+        <v>4.246104906258936</v>
       </c>
       <c r="E18">
-        <v>4.262794050426048</v>
+        <v>4.026337910057729</v>
       </c>
       <c r="F18">
-        <v>4.261727465697371</v>
+        <v>4.048609600927159</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.285220078158834</v>
+        <v>4.037578840172674</v>
       </c>
       <c r="C19">
-        <v>4.117527022709255</v>
+        <v>4.287857831522443</v>
       </c>
       <c r="D19">
-        <v>4.273686013205637</v>
+        <v>4.280912125858604</v>
       </c>
       <c r="E19">
-        <v>4.296761042274897</v>
+        <v>4.048149841312112</v>
       </c>
       <c r="F19">
-        <v>4.296056960003284</v>
+        <v>4.07587516338984</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.317942064621892</v>
+        <v>4.057374917540904</v>
       </c>
       <c r="C20">
-        <v>4.146000998936054</v>
+        <v>4.32018031574906</v>
       </c>
       <c r="D20">
-        <v>4.306521851361071</v>
+        <v>4.313586568234101</v>
       </c>
       <c r="E20">
-        <v>4.328634184802532</v>
+        <v>4.068453423348049</v>
       </c>
       <c r="F20">
-        <v>4.32826312289306</v>
+        <v>4.101891762438167</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.348638782931049</v>
+        <v>4.075777628822705</v>
       </c>
       <c r="C21">
-        <v>4.172758179368715</v>
+        <v>4.350489586658923</v>
       </c>
       <c r="D21">
-        <v>4.337348815909743</v>
+        <v>4.344231669083928</v>
       </c>
       <c r="E21">
-        <v>4.358515602264755</v>
+        <v>4.087346978336945</v>
       </c>
       <c r="F21">
-        <v>4.35844899070449</v>
+        <v>4.126725307450121</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.377406289031908</v>
+        <v>4.092881370761704</v>
       </c>
       <c r="C22">
-        <v>4.197826920470231</v>
+        <v>4.37888377107999</v>
       </c>
       <c r="D22">
-        <v>4.366258404390391</v>
+        <v>4.372946044876634</v>
       </c>
       <c r="E22">
-        <v>4.386502438611933</v>
+        <v>4.104923930680898</v>
       </c>
       <c r="F22">
-        <v>4.386712734821494</v>
+        <v>4.150437240222725</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.404336798146424</v>
+        <v>4.108775839548892</v>
       </c>
       <c r="C23">
-        <v>4.221238623746405</v>
+        <v>4.405456231728404</v>
       </c>
       <c r="D23">
-        <v>4.393339301530504</v>
+        <v>4.3998236395811</v>
       </c>
       <c r="E23">
-        <v>4.412687098451997</v>
+        <v>4.121273100234206</v>
       </c>
       <c r="F23">
-        <v>4.413147841305879</v>
+        <v>4.173084873882313</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.429518605175534</v>
+        <v>4.123546344014071</v>
       </c>
       <c r="C24">
-        <v>4.243027560601449</v>
+        <v>4.430295801005316</v>
       </c>
       <c r="D24">
-        <v>4.418677048989141</v>
+        <v>4.424953894129049</v>
       </c>
       <c r="E24">
-        <v>4.437157478259317</v>
+        <v>4.136478860163081</v>
       </c>
       <c r="F24">
-        <v>4.43784330667204</v>
+        <v>4.194721697860643</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.453036096125826</v>
+        <v>4.13727387966002</v>
       </c>
       <c r="C25">
-        <v>4.263230660028851</v>
+        <v>4.453487000119888</v>
       </c>
       <c r="D25">
-        <v>4.442353898531259</v>
+        <v>4.448421933335952</v>
       </c>
       <c r="E25">
-        <v>4.459997189150961</v>
+        <v>4.150621403652204</v>
       </c>
       <c r="F25">
-        <v>4.460883842511331</v>
+        <v>4.215397660477309</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.474969821473688</v>
+        <v>4.15003547519346</v>
       </c>
       <c r="C26">
-        <v>4.281887266016196</v>
+        <v>4.475110217983661</v>
       </c>
       <c r="D26">
-        <v>4.464448728519013</v>
+        <v>4.470308765125818</v>
       </c>
       <c r="E26">
-        <v>4.481285762428507</v>
+        <v>4.163776957309653</v>
       </c>
       <c r="F26">
-        <v>4.482350067148423</v>
+        <v>4.235159401892806</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.495396601686258</v>
+        <v>4.161904271790393</v>
       </c>
       <c r="C27">
-        <v>4.299038862269356</v>
+        <v>4.495241878495049</v>
       </c>
       <c r="D27">
-        <v>4.485037047216226</v>
+        <v>4.490691470268347</v>
       </c>
       <c r="E27">
-        <v>4.501098852788</v>
+        <v>4.176017951889439</v>
       </c>
       <c r="F27">
-        <v>4.502318696304671</v>
+        <v>4.25405046164993</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.514389651274806</v>
+        <v>4.17294976849313</v>
       </c>
       <c r="C28">
-        <v>4.314728762394725</v>
+        <v>4.513954719280237</v>
       </c>
       <c r="D28">
-        <v>4.504191040629347</v>
+        <v>4.509643381125211</v>
       </c>
       <c r="E28">
-        <v>4.519508424268975</v>
+        <v>4.187413222811745</v>
       </c>
       <c r="F28">
-        <v>4.520862728366303</v>
+        <v>4.272111523131104</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.532018716203573</v>
+        <v>4.183238001983533</v>
       </c>
       <c r="C29">
-        <v>4.329001777707639</v>
+        <v>4.531317970541557</v>
       </c>
       <c r="D29">
-        <v>4.521979648854661</v>
+        <v>4.527234261130189</v>
       </c>
       <c r="E29">
-        <v>4.536582930829611</v>
+        <v>4.198028177149263</v>
       </c>
       <c r="F29">
-        <v>4.538051625464419</v>
+        <v>4.289380609716977</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.548350217925171</v>
+        <v>4.192831699635458</v>
       </c>
       <c r="C30">
-        <v>4.341903869107216</v>
+        <v>4.547397468955606</v>
       </c>
       <c r="D30">
-        <v>4.53846865933097</v>
+        <v>4.54353047663559</v>
       </c>
       <c r="E30">
-        <v>4.55238748866408</v>
+        <v>4.207924943874334</v>
       </c>
       <c r="F30">
-        <v>4.553951481935862</v>
+        <v>4.305893280015559</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.563447393614632</v>
+        <v>4.201790455772569</v>
       </c>
       <c r="C31">
-        <v>4.353481792869759</v>
+        <v>4.562255817275002</v>
       </c>
       <c r="D31">
-        <v>4.553720806969458</v>
+        <v>4.558595160943379</v>
       </c>
       <c r="E31">
-        <v>4.56698403983476</v>
+        <v>4.217162561938166</v>
       </c>
       <c r="F31">
-        <v>4.568625185510995</v>
+        <v>4.321682800827149</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.577370437051015</v>
+        <v>4.210170890325429</v>
       </c>
       <c r="C32">
-        <v>4.363782753644856</v>
+        <v>4.575952566857628</v>
       </c>
       <c r="D32">
-        <v>4.56779589417793</v>
+        <v>4.572488376186009</v>
       </c>
       <c r="E32">
-        <v>4.580431505160834</v>
+        <v>4.225797109746306</v>
       </c>
       <c r="F32">
-        <v>4.582132570977672</v>
+        <v>4.336780310748338</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.590176637668295</v>
+        <v>4.218026756813432</v>
       </c>
       <c r="C33">
-        <v>4.372854072050736</v>
+        <v>4.588544358332292</v>
       </c>
       <c r="D33">
-        <v>4.580750908113267</v>
+        <v>4.585267255748422</v>
       </c>
       <c r="E33">
-        <v>4.592785933058811</v>
+        <v>4.233881860688608</v>
       </c>
       <c r="F33">
-        <v>4.594530568848569</v>
+        <v>4.351214963131624</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.601920514448587</v>
+        <v>4.22540912249706</v>
       </c>
       <c r="C34">
-        <v>4.380742874907535</v>
+        <v>4.600085086555882</v>
       </c>
       <c r="D34">
-        <v>4.592640137346964</v>
+        <v>4.596986147011657</v>
       </c>
       <c r="E34">
-        <v>4.604100634828545</v>
+        <v>4.241467433217651</v>
       </c>
       <c r="F34">
-        <v>4.605873346752118</v>
+        <v>4.365014067907961</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.612653945381759</v>
+        <v>4.232366460434998</v>
       </c>
       <c r="C35">
-        <v>4.387495824470406</v>
+        <v>4.610626042092959</v>
       </c>
       <c r="D35">
-        <v>4.603515279672158</v>
+        <v>4.60769674719861</v>
       </c>
       <c r="E35">
-        <v>4.614426320939783</v>
+        <v>4.248601898381341</v>
       </c>
       <c r="F35">
-        <v>4.616212442526685</v>
+        <v>4.378203222100776</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.622426292538263</v>
+        <v>4.238944788001747</v>
       </c>
       <c r="C36">
-        <v>4.39315887869678</v>
+        <v>4.620216002256451</v>
       </c>
       <c r="D36">
-        <v>4.613425562392043</v>
+        <v>4.617448233223953</v>
       </c>
       <c r="E36">
-        <v>4.623811230978421</v>
+        <v>4.255330912291608</v>
       </c>
       <c r="F36">
-        <v>4.625596891631758</v>
+        <v>4.390806430414705</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.631284521608497</v>
+        <v>4.245187797388265</v>
       </c>
       <c r="C37">
-        <v>4.397777090141417</v>
+        <v>4.628901344527237</v>
       </c>
       <c r="D37">
-        <v>4.622417851454551</v>
+        <v>4.626287384917498</v>
       </c>
       <c r="E37">
-        <v>4.632301251101707</v>
+        <v>4.261697840970373</v>
       </c>
       <c r="F37">
-        <v>4.63407334886015</v>
+        <v>4.402846216602746</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.639273317065476</v>
+        <v>4.251136946956255</v>
       </c>
       <c r="C38">
-        <v>4.401394442544419</v>
+        <v>4.636726184798624</v>
       </c>
       <c r="D38">
-        <v>4.630536759600352</v>
+        <v>4.634258699979436</v>
       </c>
       <c r="E38">
-        <v>4.639940031683133</v>
+        <v>4.267743853052915</v>
       </c>
       <c r="F38">
-        <v>4.641686204011186</v>
+        <v>4.414343727704831</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.646435190510464</v>
+        <v>4.256831581194088</v>
       </c>
       <c r="C39">
-        <v>4.404053725012815</v>
+        <v>4.643732482665913</v>
       </c>
       <c r="D39">
-        <v>4.637824750121048</v>
+        <v>4.641404506763535</v>
       </c>
       <c r="E39">
-        <v>4.646769092702748</v>
+        <v>4.273508048316347</v>
       </c>
       <c r="F39">
-        <v>4.648477691701112</v>
+        <v>4.425318828976408</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.652810584996129</v>
+        <v>4.262309024904711</v>
       </c>
       <c r="C40">
-        <v>4.40579643569442</v>
+        <v>4.649960162219524</v>
       </c>
       <c r="D40">
-        <v>4.644322236657111</v>
+        <v>4.647765069512283</v>
       </c>
       <c r="E40">
-        <v>4.652827928767429</v>
+        <v>4.279027551406203</v>
       </c>
       <c r="F40">
-        <v>4.654487995784109</v>
+        <v>4.435790192679198</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.658437975537263</v>
+        <v>4.267604667844365</v>
       </c>
       <c r="C41">
-        <v>4.40666271655483</v>
+        <v>4.655447205518951</v>
       </c>
       <c r="D41">
-        <v>4.65006767742189</v>
+        <v>4.65337868834764</v>
       </c>
       <c r="E41">
-        <v>4.658154108435613</v>
+        <v>4.284337599613479</v>
       </c>
       <c r="F41">
-        <v>4.65975534885605</v>
+        <v>4.445775381736701</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.66335396452474</v>
+        <v>4.272752073508348</v>
       </c>
       <c r="C42">
-        <v>4.406691310431628</v>
+        <v>4.660229742699989</v>
       </c>
       <c r="D42">
-        <v>4.655097672005655</v>
+        <v>4.65828179535445</v>
       </c>
       <c r="E42">
-        <v>4.662783367637624</v>
+        <v>4.289471652297655</v>
       </c>
       <c r="F42">
-        <v>4.664316127373524</v>
+        <v>4.455290926925889</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.667593372207967</v>
+        <v>4.277783040309392</v>
       </c>
       <c r="C43">
-        <v>4.405919540763064</v>
+        <v>4.6643421385046</v>
       </c>
       <c r="D43">
-        <v>4.659447047561715</v>
+        <v>4.662509047149724</v>
       </c>
       <c r="E43">
-        <v>4.666749700880701</v>
+        <v>4.294461460491393</v>
       </c>
       <c r="F43">
-        <v>4.668204941255365</v>
+        <v>4.464352398553573</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.671189323018292</v>
+        <v>4.282727690393092</v>
       </c>
       <c r="C44">
-        <v>4.404383308706514</v>
+        <v>4.667817079814261</v>
       </c>
       <c r="D44">
-        <v>4.663148939697063</v>
+        <v>4.666093410633264</v>
       </c>
       <c r="E44">
-        <v>4.670085443838716</v>
+        <v>4.299337154006976</v>
       </c>
       <c r="F44">
-        <v>4.671454720013793</v>
+        <v>4.472974472853189</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.674173327715447</v>
+        <v>4.287614550446056</v>
       </c>
       <c r="C45">
-        <v>4.402117098586699</v>
+        <v>4.670685656582444</v>
       </c>
       <c r="D45">
-        <v>4.666234888374988</v>
+        <v>4.669066243615915</v>
       </c>
       <c r="E45">
-        <v>4.672821355072748</v>
+        <v>4.304127329822268</v>
       </c>
       <c r="F45">
-        <v>4.674096794280435</v>
+        <v>4.481170994790015</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.676575362151151</v>
+        <v>4.29247060310552</v>
       </c>
       <c r="C46">
-        <v>4.39915399889441</v>
+        <v>4.672977439386838</v>
       </c>
       <c r="D46">
-        <v>4.668734887466918</v>
+        <v>4.67145737437307</v>
       </c>
       <c r="E46">
-        <v>4.674986693069715</v>
+        <v>4.308859110669395</v>
       </c>
       <c r="F46">
-        <v>4.676160973388589</v>
+        <v>4.48895503429788</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.678423941684932</v>
+        <v>4.297321368707482</v>
       </c>
       <c r="C47">
-        <v>4.395525730252612</v>
+        <v>4.674720566577856</v>
       </c>
       <c r="D47">
-        <v>4.670677486837097</v>
+        <v>4.673295177333562</v>
       </c>
       <c r="E47">
-        <v>4.676609289075343</v>
+        <v>4.313558227321832</v>
       </c>
       <c r="F47">
-        <v>4.677675619229824</v>
+        <v>4.496338940510224</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.679746190549462</v>
+        <v>4.302190954592426</v>
       </c>
       <c r="C48">
-        <v>4.391262684621112</v>
+        <v>4.675941789075422</v>
       </c>
       <c r="D48">
-        <v>4.672089839031124</v>
+        <v>4.674606643145637</v>
       </c>
       <c r="E48">
-        <v>4.677715618025559</v>
+        <v>4.318249084783159</v>
       </c>
       <c r="F48">
-        <v>4.678667716461109</v>
+        <v>4.503334391603798</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.680567912177358</v>
+        <v>4.307102107130508</v>
       </c>
       <c r="C49">
-        <v>4.386393961715862</v>
+        <v>4.676666589114696</v>
       </c>
       <c r="D49">
-        <v>4.672997777465256</v>
+        <v>4.675417445601834</v>
       </c>
       <c r="E49">
-        <v>4.678330862854594</v>
+        <v>4.322954816409439</v>
       </c>
       <c r="F49">
-        <v>4.679162936671521</v>
+        <v>4.509952441144894</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.680913649387264</v>
+        <v>4.31207627656112</v>
       </c>
       <c r="C50">
-        <v>4.380947408012761</v>
+        <v>4.676919158394089</v>
       </c>
       <c r="D50">
-        <v>4.673425883375518</v>
+        <v>4.675752006221753</v>
       </c>
       <c r="E50">
-        <v>4.678478978365687</v>
+        <v>4.327697356693766</v>
       </c>
       <c r="F50">
-        <v>4.679185709396955</v>
+        <v>4.516203561052818</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.680806763109622</v>
+        <v>4.317133642683316</v>
       </c>
       <c r="C51">
-        <v>4.374949659990493</v>
+        <v>4.676722565396383</v>
       </c>
       <c r="D51">
-        <v>4.673397537549795</v>
+        <v>4.675633556484749</v>
       </c>
       <c r="E51">
-        <v>4.678182751032889</v>
+        <v>4.332497489999982</v>
       </c>
       <c r="F51">
-        <v>4.678759271014619</v>
+        <v>4.522097682107774</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.680269467866983</v>
+        <v>4.322293168167796</v>
       </c>
       <c r="C52">
-        <v>4.368426189243431</v>
+        <v>4.676098695659233</v>
       </c>
       <c r="D52">
-        <v>4.672934997244504</v>
+        <v>4.675084194535647</v>
       </c>
       <c r="E52">
-        <v>4.677463856053318</v>
+        <v>4.337374904457251</v>
       </c>
       <c r="F52">
-        <v>4.677905744431298</v>
+        <v>4.527644230770556</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.679322886122399</v>
+        <v>4.327572635990734</v>
       </c>
       <c r="C53">
-        <v>4.361430822796255</v>
+        <v>4.675068415537746</v>
       </c>
       <c r="D53">
-        <v>4.672059419798483</v>
+        <v>4.674124940300168</v>
       </c>
       <c r="E53">
-        <v>4.676342911984822</v>
+        <v>4.342348250591</v>
       </c>
       <c r="F53">
-        <v>4.676646163766055</v>
+        <v>4.532852162701689</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.677987117595928</v>
+        <v>4.332988668775951</v>
       </c>
       <c r="C54">
-        <v>4.35412016441993</v>
+        <v>4.673651531248087</v>
       </c>
       <c r="D54">
-        <v>4.670790899091804</v>
+        <v>4.67277578838249</v>
       </c>
       <c r="E54">
-        <v>4.674839531312226</v>
+        <v>4.347435178764742</v>
       </c>
       <c r="F54">
-        <v>4.675000554011439</v>
+        <v>4.537729995560468</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.676281282401408</v>
+        <v>4.338556771578313</v>
       </c>
       <c r="C55">
-        <v>4.34664917758266</v>
+        <v>4.671866914610955</v>
       </c>
       <c r="D55">
-        <v>4.669148629219706</v>
+        <v>4.671055759128821</v>
       </c>
       <c r="E55">
-        <v>4.672972370058885</v>
+        <v>4.352652389084108</v>
       </c>
       <c r="F55">
-        <v>4.672987959630468</v>
+        <v>4.54228584092742</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.674223568872234</v>
+        <v>4.344291341030329</v>
       </c>
       <c r="C56">
-        <v>4.339149266188284</v>
+        <v>4.669732490073807</v>
       </c>
       <c r="D56">
-        <v>4.667150874471696</v>
+        <v>4.668982944939107</v>
       </c>
       <c r="E56">
-        <v>4.670759174306365</v>
+        <v>4.358015677883812</v>
       </c>
       <c r="F56">
-        <v>4.670626499872746</v>
+        <v>4.546527434524339</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.671831278724255</v>
+        <v>4.350205681117406</v>
       </c>
       <c r="C57">
-        <v>4.331733892168202</v>
+        <v>4.667265333544496</v>
       </c>
       <c r="D57">
-        <v>4.664814912082328</v>
+        <v>4.666574555557697</v>
       </c>
       <c r="E57">
-        <v>4.668216821918478</v>
+        <v>4.363539965751298</v>
       </c>
       <c r="F57">
-        <v>4.667933418626069</v>
+        <v>4.550462152738088</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.669120871031245</v>
+        <v>4.356312029793081</v>
       </c>
       <c r="C58">
-        <v>4.324501816045719</v>
+        <v>4.664481663128141</v>
       </c>
       <c r="D58">
-        <v>4.662157234883478</v>
+        <v>4.663846961230155</v>
       </c>
       <c r="E58">
-        <v>4.665361372653249</v>
+        <v>4.369239342846401</v>
       </c>
       <c r="F58">
-        <v>4.664925115483181</v>
+        <v>4.554097051688021</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.666108001469952</v>
+        <v>4.362621542671874</v>
       </c>
       <c r="C59">
-        <v>4.317539289329516</v>
+        <v>4.661396934433078</v>
       </c>
       <c r="D59">
-        <v>4.659193540935864</v>
+        <v>4.660815734622074</v>
       </c>
       <c r="E59">
-        <v>4.662208093892892</v>
+        <v>4.375127098946429</v>
       </c>
       <c r="F59">
-        <v>4.661617201421364</v>
+        <v>4.557438866300632</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.662807565024691</v>
+        <v>4.369144309112959</v>
       </c>
       <c r="C60">
-        <v>4.310921682042543</v>
+        <v>4.658025820617752</v>
       </c>
       <c r="D60">
-        <v>4.655938754664776</v>
+        <v>4.657495687287883</v>
       </c>
       <c r="E60">
-        <v>4.658771526753645</v>
+        <v>4.381215749606866</v>
       </c>
       <c r="F60">
-        <v>4.658024523594339</v>
+        <v>4.560494057094746</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.659233730311138</v>
+        <v>4.375889343717231</v>
       </c>
       <c r="C61">
-        <v>4.304714767110929</v>
+        <v>4.654382308181208</v>
       </c>
       <c r="D61">
-        <v>4.652407066578813</v>
+        <v>4.653900906364615</v>
       </c>
       <c r="E61">
-        <v>4.655065481944356</v>
+        <v>4.387517071151532</v>
       </c>
       <c r="F61">
-        <v>4.654161213161424</v>
+        <v>4.563268803248634</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.655399970783771</v>
+        <v>4.382864564054394</v>
       </c>
       <c r="C62">
-        <v>4.298975773667215</v>
+        <v>4.650479674466494</v>
       </c>
       <c r="D62">
-        <v>4.648611976498748</v>
+        <v>4.650044797392855</v>
       </c>
       <c r="E62">
-        <v>4.651103119264641</v>
+        <v>4.394042117223806</v>
       </c>
       <c r="F62">
-        <v>4.650040713634673</v>
+        <v>4.565769042339289</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.651319103934626</v>
+        <v>4.390076792839345</v>
       </c>
       <c r="C63">
-        <v>4.293754278008369</v>
+        <v>4.646330571975742</v>
       </c>
       <c r="D63">
-        <v>4.644566329069371</v>
+        <v>4.645940105333554</v>
       </c>
       <c r="E63">
-        <v>4.64689693523742</v>
+        <v>4.400801237604356</v>
       </c>
       <c r="F63">
-        <v>4.64567581265455</v>
+        <v>4.568000475223499</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.647003325272867</v>
+        <v>4.397531715745024</v>
       </c>
       <c r="C64">
-        <v>4.289092970293964</v>
+        <v>4.64194701753855</v>
       </c>
       <c r="D64">
-        <v>4.640282355609544</v>
+        <v>4.641598968214143</v>
       </c>
       <c r="E64">
-        <v>4.642458833028126</v>
+        <v>4.407804105594443</v>
       </c>
       <c r="F64">
-        <v>4.641078682469399</v>
+        <v>4.569968587041679</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.64246423649737</v>
+        <v>4.405233854360199</v>
       </c>
       <c r="C65">
-        <v>4.285028327029405</v>
+        <v>4.637340455447668</v>
       </c>
       <c r="D65">
-        <v>4.635771675921543</v>
+        <v>4.637032913168469</v>
       </c>
       <c r="E65">
-        <v>4.637800120489803</v>
+        <v>4.415059711644945</v>
       </c>
       <c r="F65">
-        <v>4.636260899800941</v>
+        <v>4.571678655165966</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.637712874080067</v>
+        <v>4.413186546884362</v>
       </c>
       <c r="C66">
-        <v>4.281591203785283</v>
+        <v>4.632521761422433</v>
       </c>
       <c r="D66">
-        <v>4.631045340917681</v>
+        <v>4.632252926285156</v>
       </c>
       <c r="E66">
-        <v>4.63293156409599</v>
+        <v>4.422576375848624</v>
       </c>
       <c r="F66">
-        <v>4.631233484431158</v>
+        <v>4.573135767885045</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.632759752239305</v>
+        <v>4.421391877498819</v>
       </c>
       <c r="C67">
-        <v>4.278807363587361</v>
+        <v>4.627501288888121</v>
       </c>
       <c r="D67">
-        <v>4.626113873835475</v>
+        <v>4.627269436535379</v>
       </c>
       <c r="E67">
-        <v>4.627863400148888</v>
+        <v>4.430361747418528</v>
       </c>
       <c r="F67">
-        <v>4.626006914380761</v>
+        <v>4.574344834445682</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.627614839359643</v>
+        <v>4.429850650883868</v>
       </c>
       <c r="C68">
-        <v>4.276697952905578</v>
+        <v>4.622288880443297</v>
       </c>
       <c r="D68">
-        <v>4.620987271906837</v>
+        <v>4.622092380937065</v>
       </c>
       <c r="E68">
-        <v>4.622605370829046</v>
+        <v>4.438422797693407</v>
       </c>
       <c r="F68">
-        <v>4.620591163697343</v>
+        <v>4.575310592444932</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.622287632490875</v>
+        <v>4.438562326652995</v>
       </c>
       <c r="C69">
-        <v>4.275279929003026</v>
+        <v>4.616893903075993</v>
       </c>
       <c r="D69">
-        <v>4.615675051429985</v>
+        <v>4.616731196015581</v>
       </c>
       <c r="E69">
-        <v>4.617166737471541</v>
+        <v>4.44676580324579</v>
       </c>
       <c r="F69">
-        <v>4.614995721926941</v>
+        <v>4.576037625984148</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.616787151420409</v>
+        <v>4.447524955254516</v>
       </c>
       <c r="C70">
-        <v>4.274566446437571</v>
+        <v>4.611325264562818</v>
       </c>
       <c r="D70">
-        <v>4.610186270995138</v>
+        <v>4.611194869689671</v>
       </c>
       <c r="E70">
-        <v>4.61155631539603</v>
+        <v>4.455396319713217</v>
       </c>
       <c r="F70">
-        <v>4.60922961479208</v>
+        <v>4.576530365829513</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.611122004458108</v>
+        <v>4.456735130174804</v>
       </c>
       <c r="C71">
-        <v>4.274567211978245</v>
+        <v>4.605591438971942</v>
       </c>
       <c r="D71">
-        <v>4.604529549893861</v>
+        <v>4.605491944936553</v>
       </c>
       <c r="E71">
-        <v>4.605782486267262</v>
+        <v>4.464319142820314</v>
       </c>
       <c r="F71">
-        <v>4.603301434842213</v>
+        <v>4.576793107391398</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.605300375801589</v>
+        <v>4.466187895888631</v>
       </c>
       <c r="C72">
-        <v>4.275288804083398</v>
+        <v>4.599700487311339</v>
       </c>
       <c r="D72">
-        <v>4.598713074358144</v>
+        <v>4.599630555871123</v>
       </c>
       <c r="E72">
-        <v>4.599853224966744</v>
+        <v>4.473538257698169</v>
       </c>
       <c r="F72">
-        <v>4.597219352440926</v>
+        <v>4.576830010890141</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.599330049788135</v>
+        <v>4.475876689620414</v>
       </c>
       <c r="C73">
-        <v>4.276734961225737</v>
+        <v>4.593660074593732</v>
       </c>
       <c r="D73">
-        <v>4.59274464282191</v>
+        <v>4.593618429677901</v>
       </c>
       <c r="E73">
-        <v>4.593776116412807</v>
+        <v>4.483056772208121</v>
       </c>
       <c r="F73">
-        <v>4.590991145732499</v>
+        <v>4.576645115901987</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.59321842762473</v>
+        <v>4.485793267477355</v>
       </c>
       <c r="C74">
-        <v>4.278906851706487</v>
+        <v>4.587477496299647</v>
       </c>
       <c r="D74">
-        <v>4.586631670807242</v>
+        <v>4.58746292809888</v>
       </c>
       <c r="E74">
-        <v>4.587558374848149</v>
+        <v>4.492876831253864</v>
       </c>
       <c r="F74">
-        <v>4.58462421171907</v>
+        <v>4.576242342759733</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.586972545274862</v>
+        <v>4.495927622216396</v>
       </c>
       <c r="C75">
-        <v>4.281803317602107</v>
+        <v>4.581159689708298</v>
       </c>
       <c r="D75">
-        <v>4.580381207694725</v>
+        <v>4.581171043564264</v>
       </c>
       <c r="E75">
-        <v>4.581206864817409</v>
+        <v>4.502999509556463</v>
       </c>
       <c r="F75">
-        <v>4.578125590394581</v>
+        <v>4.575625503048387</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.580599100088831</v>
+        <v>4.506267921140761</v>
       </c>
       <c r="C76">
-        <v>4.285421097913046</v>
+        <v>4.574713256888776</v>
       </c>
       <c r="D76">
-        <v>4.573999958902834</v>
+        <v>4.574749437182702</v>
       </c>
       <c r="E76">
-        <v>4.574728112258705</v>
+        <v>4.513424679985594</v>
       </c>
       <c r="F76">
-        <v>4.571501979728263</v>
+        <v>4.574798303250818</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.574104456740646</v>
+        <v>4.51680042917465</v>
       </c>
       <c r="C77">
-        <v>4.289755032337139</v>
+        <v>4.568144472552521</v>
       </c>
       <c r="D77">
-        <v>4.567494308133627</v>
+        <v>4.568204435499732</v>
       </c>
       <c r="E77">
-        <v>4.568128329947519</v>
+        <v>4.52415085440138</v>
       </c>
       <c r="F77">
-        <v>4.56475975076873</v>
+        <v>4.573764350593661</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.567494678005402</v>
+        <v>4.527509453250652</v>
       </c>
       <c r="C78">
-        <v>4.294798249749486</v>
+        <v>4.561459311597048</v>
       </c>
       <c r="D78">
-        <v>4.560870343522272</v>
+        <v>4.561542065063054</v>
       </c>
       <c r="E78">
-        <v>4.561413421912174</v>
+        <v>4.535174993628106</v>
       </c>
       <c r="F78">
-        <v>4.557904968682965</v>
+        <v>4.572527159790654</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.560775524987064</v>
+        <v>4.538377291477608</v>
       </c>
       <c r="C79">
-        <v>4.300542340233141</v>
+        <v>4.554663451447615</v>
       </c>
       <c r="D79">
-        <v>4.554133818254607</v>
+        <v>4.554768050620037</v>
       </c>
       <c r="E79">
-        <v>4.554589010431585</v>
+        <v>4.546492293056946</v>
       </c>
       <c r="F79">
-        <v>4.550943400674607</v>
+        <v>4.571090154572345</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.553952483489074</v>
+        <v>4.549384198223612</v>
       </c>
       <c r="C80">
-        <v>4.306977513048439</v>
+        <v>4.547762298456331</v>
       </c>
       <c r="D80">
-        <v>4.547290246404346</v>
+        <v>4.547887844849112</v>
       </c>
       <c r="E80">
-        <v>4.547660437589066</v>
+        <v>4.55809590695981</v>
       </c>
       <c r="F80">
-        <v>4.543880537103876</v>
+        <v>4.569456676222569</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.547030771583962</v>
+        <v>4.560508363944502</v>
       </c>
       <c r="C81">
-        <v>4.31409273951653</v>
+        <v>4.540760989026252</v>
       </c>
       <c r="D81">
-        <v>4.540344835980159</v>
+        <v>4.540906627618774</v>
       </c>
       <c r="E81">
-        <v>4.540632790604973</v>
+        <v>4.569976666095152</v>
       </c>
       <c r="F81">
-        <v>4.536721599560488</v>
+        <v>4.56762998334696</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.540015351783816</v>
+        <v>4.571725913784134</v>
       </c>
       <c r="C82">
-        <v>4.321875889608568</v>
+        <v>4.533664415180643</v>
       </c>
       <c r="D82">
-        <v>4.533302545337547</v>
+        <v>4.533829332931882</v>
       </c>
       <c r="E82">
-        <v>4.5335109033715</v>
+        <v>4.582122757636483</v>
       </c>
       <c r="F82">
-        <v>4.529471557452196</v>
+        <v>4.565613258741716</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.532910948886367</v>
+        <v>4.583010931143664</v>
       </c>
       <c r="C83">
-        <v>4.330313857611877</v>
+        <v>4.526477224360269</v>
       </c>
       <c r="D83">
-        <v>4.526168115022697</v>
+        <v>4.526660647665617</v>
       </c>
       <c r="E83">
-        <v>4.526299378692712</v>
+        <v>4.594519365882383</v>
       </c>
       <c r="F83">
-        <v>4.522135138925044</v>
+        <v>4.563409609317731</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.525722052436961</v>
+        <v>4.594335510151432</v>
       </c>
       <c r="C84">
-        <v>4.339392668752788</v>
+        <v>4.519203843392631</v>
       </c>
       <c r="D84">
-        <v>4.518946014820145</v>
+        <v>4.519405036643582</v>
       </c>
       <c r="E84">
-        <v>4.519002590718413</v>
+        <v>4.607148294344289</v>
       </c>
       <c r="F84">
-        <v>4.514716837284309</v>
+        <v>4.561022077252169</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.518452939759887</v>
+        <v>4.605669835945833</v>
       </c>
       <c r="C85">
-        <v>4.349097583454411</v>
+        <v>4.511848477101927</v>
       </c>
       <c r="D85">
-        <v>4.511640543963029</v>
+        <v>4.512066740624557</v>
       </c>
       <c r="E85">
-        <v>4.511624703848041</v>
+        <v>4.619987578702461</v>
       </c>
       <c r="F85">
-        <v>4.50722093525574</v>
+        <v>4.558453632501233</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.511107672551812</v>
+        <v>4.616982299183298</v>
       </c>
       <c r="C86">
-        <v>4.359396977730063</v>
+        <v>4.504415131484354</v>
       </c>
       <c r="D86">
-        <v>4.504255781845766</v>
+        <v>4.504649799686441</v>
       </c>
       <c r="E86">
-        <v>4.504169676327768</v>
+        <v>4.633011104753513</v>
       </c>
       <c r="F86">
-        <v>4.499651506381383</v>
+        <v>4.555707183984137</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.503690117194765</v>
+        <v>4.628239648886544</v>
       </c>
       <c r="C87">
-        <v>4.370197441282984</v>
+        <v>4.49690761101022</v>
       </c>
       <c r="D87">
-        <v>4.496795598034785</v>
+        <v>4.49715805100327</v>
       </c>
       <c r="E87">
-        <v>4.496641275870781</v>
+        <v>4.646188256930485</v>
       </c>
       <c r="F87">
-        <v>4.492012417976427</v>
+        <v>4.552785587390666</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.496203952579327</v>
+        <v>4.639407173626505</v>
       </c>
       <c r="C88">
-        <v>4.381395162852367</v>
+        <v>4.489329540716084</v>
       </c>
       <c r="D88">
-        <v>4.489263668408288</v>
+        <v>4.489595150116343</v>
       </c>
       <c r="E88">
-        <v>4.489043084483829</v>
+        <v>4.65948361981873</v>
       </c>
       <c r="F88">
-        <v>4.484307371412873</v>
+        <v>4.549691618097984</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.488652678565164</v>
+        <v>4.650448919402925</v>
       </c>
       <c r="C89">
-        <v>4.39289325174132</v>
+        <v>4.481684362868955</v>
       </c>
       <c r="D89">
-        <v>4.481663482015851</v>
+        <v>4.481964569042358</v>
       </c>
       <c r="E89">
-        <v>4.481378510899416</v>
+        <v>4.67285676708875</v>
       </c>
       <c r="F89">
-        <v>4.476539865564736</v>
+        <v>4.546428015130455</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.481039624836675</v>
+        <v>4.661327941811721</v>
       </c>
       <c r="C90">
-        <v>4.404600802294712</v>
+        <v>4.47397535760359</v>
       </c>
       <c r="D90">
-        <v>4.473998390480542</v>
+        <v>4.474269615365296</v>
       </c>
       <c r="E90">
-        <v>4.473650796769383</v>
+        <v>4.686262167165036</v>
       </c>
       <c r="F90">
-        <v>4.468713239332848</v>
+        <v>4.542997457875626</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.473367958952293</v>
+        <v>4.672006579106553</v>
       </c>
       <c r="C91">
-        <v>4.416432999326781</v>
+        <v>4.466205639544325</v>
       </c>
       <c r="D91">
-        <v>4.466271583393184</v>
+        <v>4.466513430689285</v>
       </c>
       <c r="E91">
-        <v>4.465863025910645</v>
+        <v>4.699649249686102</v>
       </c>
       <c r="F91">
-        <v>4.46083068118007</v>
+        <v>4.539402561424297</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.465640694597319</v>
+        <v>4.682446756918192</v>
       </c>
       <c r="C92">
-        <v>4.428310700349527</v>
+        <v>4.458378176676764</v>
       </c>
       <c r="D92">
-        <v>4.458486071218728</v>
+        <v>4.4586990078506</v>
       </c>
       <c r="E92">
-        <v>4.45801813207686</v>
+        <v>4.712962655156236</v>
       </c>
       <c r="F92">
-        <v>4.452895196540613</v>
+        <v>4.535645902926817</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.457860700684142</v>
+        <v>4.692610321610919</v>
       </c>
       <c r="C93">
-        <v>4.440160020751979</v>
+        <v>4.450495787179822</v>
       </c>
       <c r="D93">
-        <v>4.450644711413047</v>
+        <v>4.450829189463982</v>
       </c>
       <c r="E93">
-        <v>4.450118901708905</v>
+        <v>4.726142695006359</v>
       </c>
       <c r="F93">
-        <v>4.444909671156632</v>
+        <v>4.531730004361829</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.450030704565863</v>
+        <v>4.702459368409539</v>
       </c>
       <c r="C94">
-        <v>4.451912104160167</v>
+        <v>4.442561156626329</v>
       </c>
       <c r="D94">
-        <v>4.442750226699158</v>
+        <v>4.442906683631906</v>
       </c>
       <c r="E94">
-        <v>4.442167989600646</v>
+        <v>4.739126028455165</v>
       </c>
       <c r="F94">
-        <v>4.436876840115379</v>
+        <v>4.527657337370045</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.442153300163288</v>
+        <v>4.711956580090926</v>
       </c>
       <c r="C95">
-        <v>4.463502905337897</v>
+        <v>4.434576834971973</v>
       </c>
       <c r="D95">
-        <v>4.434805211828495</v>
+        <v>4.434934062431368</v>
       </c>
       <c r="E95">
-        <v>4.434167925468245</v>
+        <v>4.751846545463628</v>
       </c>
       <c r="F95">
-        <v>4.428799299896734</v>
+        <v>4.523430332144145</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.434230956875323</v>
+        <v>4.721065563082075</v>
       </c>
       <c r="C96">
-        <v>4.474872980687989</v>
+        <v>4.426545252279671</v>
       </c>
       <c r="D96">
-        <v>4.426812139415722</v>
+        <v>4.426913776309483</v>
       </c>
       <c r="E96">
-        <v>4.42612109893655</v>
+        <v>4.764236431045386</v>
       </c>
       <c r="F96">
-        <v>4.420679532701434</v>
+        <v>4.519051372895745</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.426266020530982</v>
+        <v>4.729751171850809</v>
       </c>
       <c r="C97">
-        <v>4.485967226264259</v>
+        <v>4.41846871582228</v>
       </c>
       <c r="D97">
-        <v>4.418773357319129</v>
+        <v>4.418848152561561</v>
       </c>
       <c r="E97">
-        <v>4.418029805060126</v>
+        <v>4.776227386115272</v>
       </c>
       <c r="F97">
-        <v>4.41251988849211</v>
+        <v>4.514522801882959</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.418260726123085</v>
+        <v>4.737979819001782</v>
       </c>
       <c r="C98">
-        <v>4.496734634147044</v>
+        <v>4.410349424367396</v>
       </c>
       <c r="D98">
-        <v>4.410691104169086</v>
+        <v>4.410739408453185</v>
       </c>
       <c r="E98">
-        <v>4.409896225205727</v>
+        <v>4.787751908880192</v>
       </c>
       <c r="F98">
-        <v>4.404322610698719</v>
+        <v>4.509846920848935</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.41021720135434</v>
+        <v>4.745719754297975</v>
       </c>
       <c r="C99">
-        <v>4.507128097996339</v>
+        <v>4.402189465862392</v>
       </c>
       <c r="D99">
-        <v>4.402567496843774</v>
+        <v>4.402589649801947</v>
       </c>
       <c r="E99">
-        <v>4.401722407738854</v>
+        <v>4.798744580956792</v>
       </c>
       <c r="F99">
-        <v>4.396089834939724</v>
+        <v>4.505025983061428</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4.402137469885968</v>
+        <v>4.752941313627641</v>
       </c>
       <c r="C100">
-        <v>4.517104247933704</v>
+        <v>4.393990829485959</v>
       </c>
       <c r="D100">
-        <v>4.394404562440781</v>
+        <v>4.394400882475418</v>
       </c>
       <c r="E100">
-        <v>4.393510333839016</v>
+        <v>4.809143297026674</v>
       </c>
       <c r="F100">
-        <v>4.387823586343039</v>
+        <v>4.500062210010008</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4.39402345466466</v>
+        <v>4.759617132457702</v>
       </c>
       <c r="C101">
-        <v>4.526623290992877</v>
+        <v>4.385755404901202</v>
       </c>
       <c r="D101">
-        <v>4.386204215562917</v>
+        <v>4.386175008628732</v>
       </c>
       <c r="E101">
-        <v>4.385261878193017</v>
+        <v>4.818890365609981</v>
       </c>
       <c r="F101">
-        <v>4.379525802721521</v>
+        <v>4.494957782301543</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>4.385876986736</v>
+        <v>4.765722320179451</v>
       </c>
       <c r="C102">
-        <v>4.535648847189409</v>
+        <v>4.377484991567079</v>
       </c>
       <c r="D102">
-        <v>4.377968288893364</v>
+        <v>4.377913844578049</v>
       </c>
       <c r="E102">
-        <v>4.376978806374446</v>
+        <v>4.827933425755766</v>
       </c>
       <c r="F102">
-        <v>4.371198320654717</v>
+        <v>4.489714840718681</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.37769980926644</v>
+        <v>4.771234590765072</v>
       </c>
       <c r="C103">
-        <v>4.544147788991522</v>
+        <v>4.369181297012142</v>
       </c>
       <c r="D103">
-        <v>4.369698519945956</v>
+        <v>4.369619118931717</v>
       </c>
       <c r="E103">
-        <v>4.368662820576873</v>
+        <v>4.836226142712829</v>
       </c>
       <c r="F103">
-        <v>4.362842886376398</v>
+        <v>4.48433549266288</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>4.3694935807344</v>
+        <v>4.776134363815864</v>
       </c>
       <c r="C104">
-        <v>4.552090095137421</v>
+        <v>4.360845948501684</v>
       </c>
       <c r="D104">
-        <v>4.361396562864126</v>
+        <v>4.361292462641456</v>
       </c>
       <c r="E104">
-        <v>4.360315530526132</v>
+        <v>4.843728685141557</v>
       </c>
       <c r="F104">
-        <v>4.354461170373814</v>
+        <v>4.478821807458377</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>4.361259877473718</v>
+        <v>4.780404803637408</v>
       </c>
       <c r="C105">
-        <v>4.559448728540076</v>
+        <v>4.352480497818163</v>
       </c>
       <c r="D105">
-        <v>4.353063995996212</v>
+        <v>4.352935446669161</v>
       </c>
       <c r="E105">
-        <v>4.3519384608083</v>
+        <v>4.850407958634785</v>
       </c>
       <c r="F105">
-        <v>4.34605474980484</v>
+        <v>4.473175818716873</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4.353000201422147</v>
+        <v>4.78403183435654</v>
       </c>
       <c r="C106">
-        <v>4.566199529855974</v>
+        <v>4.34408641167988</v>
       </c>
       <c r="D106">
-        <v>4.34470231105796</v>
+        <v>4.344549564044819</v>
       </c>
       <c r="E106">
-        <v>4.343533072812363</v>
+        <v>4.856237643686821</v>
       </c>
       <c r="F106">
-        <v>4.337625135766304</v>
+        <v>4.467399528018514</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4.344715985539824</v>
+        <v>4.787004120672259</v>
       </c>
       <c r="C107">
-        <v>4.572321116533325</v>
+        <v>4.335665091932728</v>
       </c>
       <c r="D107">
-        <v>4.336312941716405</v>
+        <v>4.336136208842946</v>
       </c>
       <c r="E107">
-        <v>4.335100749902256</v>
+        <v>4.861198044612554</v>
       </c>
       <c r="F107">
-        <v>4.329173762939239</v>
+        <v>4.461494901822032</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.336408581939336</v>
+        <v>4.789313014817016</v>
       </c>
       <c r="C108">
-        <v>4.57779479219847</v>
+        <v>4.327217880730268</v>
       </c>
       <c r="D108">
-        <v>4.327897235405554</v>
+        <v>4.327696738137769</v>
       </c>
       <c r="E108">
-        <v>4.326642806574679</v>
+        <v>4.865275771178617</v>
       </c>
       <c r="F108">
-        <v>4.320701991493431</v>
+        <v>4.455463874890071</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>4.328079293964621</v>
+        <v>4.790952461908199</v>
       </c>
       <c r="C109">
-        <v>4.582604470418</v>
+        <v>4.318746039161129</v>
       </c>
       <c r="D109">
-        <v>4.31945648707921</v>
+        <v>4.31923243688691</v>
       </c>
       <c r="E109">
-        <v>4.318160500156347</v>
+        <v>4.868463339687347</v>
       </c>
       <c r="F109">
-        <v>4.312211122872184</v>
+        <v>4.449308350330416</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>4.319729341903789</v>
+        <v>4.791918899668928</v>
       </c>
       <c r="C110">
-        <v>4.586736613728974</v>
+        <v>4.310250769215243</v>
       </c>
       <c r="D110">
-        <v>4.310991915673046</v>
+        <v>4.310744505475169</v>
       </c>
       <c r="E110">
-        <v>4.309655020734962</v>
+        <v>4.870758681535851</v>
       </c>
       <c r="F110">
-        <v>4.303702390421986</v>
+        <v>4.443030198457604</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>4.311359890090658</v>
+        <v>4.792211125173662</v>
       </c>
       <c r="C111">
-        <v>4.590180187129532</v>
+        <v>4.301733228693763</v>
       </c>
       <c r="D111">
-        <v>4.302504693408716</v>
+        <v>4.302234109443054</v>
       </c>
       <c r="E111">
-        <v>4.301127502921628</v>
+        <v>4.872164605486231</v>
       </c>
       <c r="F111">
-        <v>4.295176969132277</v>
+        <v>4.436631260823336</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>4.302972057012395</v>
+        <v>4.791830158673597</v>
       </c>
       <c r="C112">
-        <v>4.592926624263137</v>
+        <v>4.293194505605178</v>
       </c>
       <c r="D112">
-        <v>4.293995924411527</v>
+        <v>4.293702352146724</v>
       </c>
       <c r="E112">
-        <v>4.292579031174183</v>
+        <v>4.872688239243177</v>
       </c>
       <c r="F112">
-        <v>4.28663597976209</v>
+        <v>4.430113348509328</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>4.294566901627514</v>
+        <v>4.790779089970236</v>
       </c>
       <c r="C113">
-        <v>4.594969815875682</v>
+        <v>4.284635631232435</v>
       </c>
       <c r="D113">
-        <v>4.285466667446079</v>
+        <v>4.285150270861012</v>
       </c>
       <c r="E113">
-        <v>4.284010626126658</v>
+        <v>4.872340476643338</v>
       </c>
       <c r="F113">
-        <v>4.278080482801637</v>
+        <v>4.423478242679067</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>4.286145439197115</v>
+        <v>4.789062917110788</v>
       </c>
       <c r="C114">
-        <v>4.596306098926185</v>
+        <v>4.27605759984514</v>
       </c>
       <c r="D114">
-        <v>4.276917927136092</v>
+        <v>4.276578865367632</v>
       </c>
       <c r="E114">
-        <v>4.275423266391819</v>
+        <v>4.871135439814762</v>
       </c>
       <c r="F114">
-        <v>4.269511493760195</v>
+        <v>4.416727697067466</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>4.277708630189255</v>
+        <v>4.786688381529819</v>
       </c>
       <c r="C115">
-        <v>4.596934264734339</v>
+        <v>4.2674613488985</v>
       </c>
       <c r="D115">
-        <v>4.268350663008484</v>
+        <v>4.267989084230557</v>
       </c>
       <c r="E115">
-        <v>4.266817884998011</v>
+        <v>4.869089979284601</v>
       </c>
       <c r="F115">
-        <v>4.260929976531759</v>
+        <v>4.409863436325865</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>4.269257391447161</v>
+        <v>4.783663803078061</v>
       </c>
       <c r="C116">
-        <v>4.596855577236022</v>
+        <v>4.258847765341311</v>
       </c>
       <c r="D116">
-        <v>4.259765771889573</v>
+        <v>4.259381821231742</v>
       </c>
       <c r="E116">
-        <v>4.258195359661665</v>
+        <v>4.866223199150079</v>
       </c>
       <c r="F116">
-        <v>4.252336846221439</v>
+        <v>4.402887157594066</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>4.260792590545978</v>
+        <v>4.779998915869523</v>
       </c>
       <c r="C117">
-        <v>4.596073791034518</v>
+        <v>4.250217701932109</v>
       </c>
       <c r="D117">
-        <v>4.251164129113204</v>
+        <v>4.250757936186353</v>
       </c>
       <c r="E117">
-        <v>4.249556534641068</v>
+        <v>4.86255602706261</v>
       </c>
       <c r="F117">
-        <v>4.243732978557188</v>
+        <v>4.395800531779809</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>4.252315055515653</v>
+        <v>4.775704709886561</v>
       </c>
       <c r="C118">
-        <v>4.59459516567023</v>
+        <v>4.241571966514254</v>
       </c>
       <c r="D118">
-        <v>4.242546556262814</v>
+        <v>4.24211824599622</v>
       </c>
       <c r="E118">
-        <v>4.240902211152714</v>
+        <v>4.858110829532539</v>
       </c>
       <c r="F118">
-        <v>4.235119201875292</v>
+        <v>4.388605202038923</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>4.243825572368334</v>
+        <v>4.770793276431921</v>
       </c>
       <c r="C119">
-        <v>4.59242846170265</v>
+        <v>4.232911325989387</v>
       </c>
       <c r="D119">
-        <v>4.233913817875559</v>
+        <v>4.23346352076256</v>
       </c>
       <c r="E119">
-        <v>4.232233144969445</v>
+        <v>4.852911073043635</v>
       </c>
       <c r="F119">
-        <v>4.226496307437732</v>
+        <v>4.381302786439474</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4.235324891355418</v>
+        <v>4.765277658807583</v>
       </c>
       <c r="C120">
-        <v>4.589584903450875</v>
+        <v>4.224236515088468</v>
       </c>
       <c r="D120">
-        <v>4.225266671862661</v>
+        <v>4.224794501982882</v>
       </c>
       <c r="E120">
-        <v>4.223550062105568</v>
+        <v>4.846981022561273</v>
       </c>
       <c r="F120">
-        <v>4.217865048872381</v>
+        <v>4.373894877379124</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>4.226813726393764</v>
+        <v>4.759171717834019</v>
       </c>
       <c r="C121">
-        <v>4.586078092761754</v>
+        <v>4.215548230669672</v>
       </c>
       <c r="D121">
-        <v>4.216605821358884</v>
+        <v>4.216111894936862</v>
       </c>
       <c r="E121">
-        <v>4.214853651152644</v>
+        <v>4.84034547864298</v>
       </c>
       <c r="F121">
-        <v>4.209226139579913</v>
+        <v>4.366383041450537</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>4.218292757279053</v>
+        <v>4.75248999657058</v>
       </c>
       <c r="C122">
-        <v>4.581923858151981</v>
+        <v>4.206847127410919</v>
       </c>
       <c r="D122">
-        <v>4.207931930737245</v>
+        <v>4.207416359303865</v>
       </c>
       <c r="E122">
-        <v>4.206144563701493</v>
+        <v>4.833029522288499</v>
       </c>
       <c r="F122">
-        <v>4.20058026278161</v>
+        <v>4.35876882144825</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>4.209762631221648</v>
+        <v>4.745247597876747</v>
       </c>
       <c r="C123">
-        <v>4.577140030850549</v>
+        <v>4.198133839730402</v>
       </c>
       <c r="D123">
-        <v>4.199245647255196</v>
+        <v>4.198708534312751</v>
       </c>
       <c r="E123">
-        <v>4.197423424432247</v>
+        <v>4.825058345821192</v>
       </c>
       <c r="F123">
-        <v>4.191928066443439</v>
+        <v>4.351053735649042</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4.20122396466663</v>
+        <v>4.737460071390229</v>
       </c>
       <c r="C124">
-        <v>4.571746154822421</v>
+        <v>4.189408967866521</v>
       </c>
       <c r="D124">
-        <v>4.190547579084842</v>
+        <v>4.189989026467217</v>
       </c>
       <c r="E124">
-        <v>4.188690825605218</v>
+        <v>4.816457101904053</v>
       </c>
       <c r="F124">
-        <v>4.183270166700064</v>
+        <v>4.343239278368427</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>4.192677343733945</v>
+        <v>4.729143309304193</v>
       </c>
       <c r="C125">
-        <v>4.565763141037058</v>
+        <v>4.180673076894552</v>
       </c>
       <c r="D125">
-        <v>4.181838308447507</v>
+        <v>4.181258405503962</v>
       </c>
       <c r="E125">
-        <v>4.179947328199871</v>
+        <v>4.807250753244144</v>
       </c>
       <c r="F125">
-        <v>4.174607152470299</v>
+        <v>4.335326921082453</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>4.184123326545106</v>
+        <v>4.720313451626392</v>
       </c>
       <c r="C126">
-        <v>4.559212895555183</v>
+        <v>4.171926712366774</v>
       </c>
       <c r="D126">
-        <v>4.173118381183482</v>
+        <v>4.172517220376935</v>
       </c>
       <c r="E126">
-        <v>4.171193470328141</v>
+        <v>4.797463953388152</v>
       </c>
       <c r="F126">
-        <v>4.165939580675243</v>
+        <v>4.327318111964079</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>4.175562444329812</v>
+        <v>4.710986800098523</v>
       </c>
       <c r="C127">
-        <v>4.552117948011612</v>
+        <v>4.163170391537853</v>
       </c>
       <c r="D127">
-        <v>4.16438832677246</v>
+        <v>4.163765992833054</v>
       </c>
       <c r="E127">
-        <v>4.162429761278061</v>
+        <v>4.787120955548472</v>
       </c>
       <c r="F127">
-        <v>4.157267984457733</v>
+        <v>4.319214276833742</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>4.166995202637302</v>
+        <v>4.701179739698468</v>
       </c>
       <c r="C128">
-        <v>4.544501108326472</v>
+        <v>4.15440459912588</v>
       </c>
       <c r="D128">
-        <v>4.155648647384718</v>
+        <v>4.155005213442715</v>
       </c>
       <c r="E128">
-        <v>4.153656684526291</v>
+        <v>4.776245531310959</v>
       </c>
       <c r="F128">
-        <v>4.14859287053281</v>
+        <v>4.311016819652839</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>4.158422083081535</v>
+        <v>4.69090866836958</v>
       </c>
       <c r="C129">
-        <v>4.536385169894973</v>
+        <v>4.145629804468343</v>
       </c>
       <c r="D129">
-        <v>4.146899812269932</v>
+        <v>4.14623535378707</v>
       </c>
       <c r="E129">
-        <v>4.144874703493216</v>
+        <v>4.764860911131661</v>
       </c>
       <c r="F129">
-        <v>4.13991471938881</v>
+        <v>4.302727122155627</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>4.149843544740658</v>
+        <v>4.680189935519017</v>
       </c>
       <c r="C130">
-        <v>4.527792666137999</v>
+        <v>4.136846452238301</v>
       </c>
       <c r="D130">
-        <v>4.13814227664324</v>
+        <v>4.137456862386293</v>
       </c>
       <c r="E130">
-        <v>4.136084255859462</v>
+        <v>4.752989732218468</v>
       </c>
       <c r="F130">
-        <v>4.131233991094493</v>
+        <v>4.29434654527239</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>4.141260023830154</v>
+        <v>4.669039786157112</v>
       </c>
       <c r="C131">
-        <v>4.518745683001002</v>
+        <v>4.128054960995729</v>
       </c>
       <c r="D131">
-        <v>4.129376470904384</v>
+        <v>4.128670162296582</v>
       </c>
       <c r="E131">
-        <v>4.12728575844746</v>
+        <v>4.740654008815549</v>
       </c>
       <c r="F131">
-        <v>4.122551121635746</v>
+        <v>4.28587642885114</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>4.132671935099164</v>
+        <v>4.657474312365304</v>
       </c>
       <c r="C132">
-        <v>4.509265721198116</v>
+        <v>4.11925573395822</v>
       </c>
       <c r="D132">
-        <v>4.120602800839618</v>
+        <v>4.119875659009526</v>
       </c>
       <c r="E132">
-        <v>4.118479610002793</v>
+        <v>4.727875107256522</v>
       </c>
       <c r="F132">
-        <v>4.113866526389446</v>
+        <v>4.27731809183182</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>4.124079676937606</v>
+        <v>4.645509411010577</v>
       </c>
       <c r="C133">
-        <v>4.499373601199767</v>
+        <v>4.1104491540887</v>
       </c>
       <c r="D133">
-        <v>4.111821655927529</v>
+        <v>4.111073738777526</v>
       </c>
       <c r="E133">
-        <v>4.10966618661812</v>
+        <v>4.714673723398676</v>
       </c>
       <c r="F133">
-        <v>4.105180602003597</v>
+        <v>4.268672833368402</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>4.115483628888841</v>
+        <v>4.633160746970298</v>
       </c>
       <c r="C134">
-        <v>4.489089402676371</v>
+        <v>4.101635581176112</v>
       </c>
       <c r="D134">
-        <v>4.103033405332023</v>
+        <v>4.102264765475624</v>
       </c>
       <c r="E134">
-        <v>4.100845847832768</v>
+        <v>4.701069871176161</v>
       </c>
       <c r="F134">
-        <v>4.096493723625232</v>
+        <v>4.259941932499856</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>4.106884144047894</v>
+        <v>4.620443721038654</v>
       </c>
       <c r="C135">
-        <v>4.478432429358359</v>
+        <v>4.092815362079816</v>
       </c>
       <c r="D135">
-        <v>4.094238399219073</v>
+        <v>4.093449088101504</v>
       </c>
       <c r="E135">
-        <v>4.092018936556712</v>
+        <v>4.687082877363321</v>
       </c>
       <c r="F135">
-        <v>4.087806250718577</v>
+        <v>4.251126648633226</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>4.098281569443786</v>
+        <v>4.607373444321398</v>
       </c>
       <c r="C136">
-        <v>4.467421195172972</v>
+        <v>4.083988826459553</v>
       </c>
       <c r="D136">
-        <v>4.085436971901448</v>
+        <v>4.084627039405644</v>
       </c>
       <c r="E136">
-        <v>4.083185775892979</v>
+        <v>4.672731386070603</v>
       </c>
       <c r="F136">
-        <v>4.079118524619741</v>
+        <v>4.242228222253785</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>4.089676234004909</v>
+        <v>4.593964715228557</v>
       </c>
       <c r="C137">
-        <v>4.456073426209985</v>
+        <v>4.075156284742904</v>
       </c>
       <c r="D137">
-        <v>4.076629440124625</v>
+        <v>4.075798932696496</v>
       </c>
       <c r="E137">
-        <v>4.07434667601368</v>
+        <v>4.6580333540749</v>
       </c>
       <c r="F137">
-        <v>4.070430869431004</v>
+        <v>4.233247874676507</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>4.081068445812893</v>
+        <v>4.580232001059043</v>
       </c>
       <c r="C138">
-        <v>4.444406069512592</v>
+        <v>4.066318034938247</v>
       </c>
       <c r="D138">
-        <v>4.067816103259203</v>
+        <v>4.066965068336595</v>
       </c>
       <c r="E138">
-        <v>4.065501931646131</v>
+        <v>4.643006064885607</v>
       </c>
       <c r="F138">
-        <v>4.06174359536043</v>
+        <v>4.224186808821588</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>4.072458499658208</v>
+        <v>4.566189423140779</v>
       </c>
       <c r="C139">
-        <v>4.432435310429</v>
+        <v>4.057474361214149</v>
       </c>
       <c r="D139">
-        <v>4.058997250102188</v>
+        <v>4.058125732975001</v>
       </c>
       <c r="E139">
-        <v>4.056651820909124</v>
+        <v>4.627666136503914</v>
       </c>
       <c r="F139">
-        <v>4.053056996198902</v>
+        <v>4.215046209458666</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>4.063846681181501</v>
+        <v>4.55185074924567</v>
       </c>
       <c r="C140">
-        <v>4.420176595636643</v>
+        <v>4.048625530971098</v>
       </c>
       <c r="D140">
-        <v>4.050173155475098</v>
+        <v>4.049281196326061</v>
       </c>
       <c r="E140">
-        <v>4.047796610944346</v>
+        <v>4.612029537233027</v>
       </c>
       <c r="F140">
-        <v>4.044371352476495</v>
+        <v>4.205827243167088</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>4.055233260304201</v>
+        <v>4.537229374034478</v>
       </c>
       <c r="C141">
-        <v>4.407644658178762</v>
+        <v>4.039771800145085</v>
       </c>
       <c r="D141">
-        <v>4.04134408251449</v>
+        <v>4.040431716725185</v>
       </c>
       <c r="E141">
-        <v>4.03893655524991</v>
+        <v>4.596111597834473</v>
       </c>
       <c r="F141">
-        <v>4.035686931631911</v>
+        <v>4.196531059210248</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>4.046618489004727</v>
+        <v>4.522338326728809</v>
       </c>
       <c r="C142">
-        <v>4.394853544278537</v>
+        <v>4.030913413478345</v>
       </c>
       <c r="D142">
-        <v>4.032510271041947</v>
+        <v>4.031577540871817</v>
       </c>
       <c r="E142">
-        <v>4.030071893301713</v>
+        <v>4.579927027372385</v>
       </c>
       <c r="F142">
-        <v>4.027003986982538</v>
+        <v>4.187158789380289</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>4.038002614353937</v>
+        <v>4.507190243481421</v>
       </c>
       <c r="C143">
-        <v>4.381816641159372</v>
+        <v>4.022050601632579</v>
       </c>
       <c r="D143">
-        <v>4.023671954950527</v>
+        <v>4.022718901143323</v>
       </c>
       <c r="E143">
-        <v>4.021202855137076</v>
+        <v>4.563489929155376</v>
       </c>
       <c r="F143">
-        <v>4.018322761245873</v>
+        <v>4.177711548197875</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>4.029385870181788</v>
+        <v>4.4917974002032</v>
       </c>
       <c r="C144">
-        <v>4.368546705068749</v>
+        <v>4.013183584465501</v>
       </c>
       <c r="D144">
-        <v>4.014829365641854</v>
+        <v>4.013856019706691</v>
       </c>
       <c r="E144">
-        <v>4.012329658773249</v>
+        <v>4.546813819303174</v>
       </c>
       <c r="F144">
-        <v>4.009643484811423</v>
+        <v>4.168190433977979</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>4.020768476538862</v>
+        <v>4.476171677790861</v>
       </c>
       <c r="C145">
-        <v>4.3550558888774</v>
+        <v>4.004312572654763</v>
       </c>
       <c r="D145">
-        <v>4.005982721589908</v>
+        <v>4.004989108799962</v>
       </c>
       <c r="E145">
-        <v>4.003452510504361</v>
+        <v>4.529911644619779</v>
       </c>
       <c r="F145">
-        <v>4.00096637681596</v>
+        <v>4.158596528611428</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>4.012150645464958</v>
+        <v>4.460324593008578</v>
       </c>
       <c r="C146">
-        <v>4.341355769180002</v>
+        <v>3.995437765005007</v>
       </c>
       <c r="D146">
-        <v>3.997132233630791</v>
+        <v>3.996118368542535</v>
       </c>
       <c r="E146">
-        <v>3.994571608370814</v>
+        <v>4.512795801224615</v>
       </c>
       <c r="F146">
-        <v>3.992291646935965</v>
+        <v>4.148930897720475</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>4.003532579865545</v>
+        <v>4.444267281770033</v>
       </c>
       <c r="C147">
-        <v>4.327457372832214</v>
+        <v>3.986559350373968</v>
       </c>
       <c r="D147">
-        <v>3.988278064969259</v>
+        <v>3.98724399001171</v>
       </c>
       <c r="E147">
-        <v>3.985687139806197</v>
+        <v>4.495478153268795</v>
       </c>
       <c r="F147">
-        <v>3.983619493591509</v>
+        <v>4.139194590116745</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3.994914472278018</v>
+        <v>4.428010511320473</v>
       </c>
       <c r="C148">
-        <v>4.31337120235024</v>
+        <v>3.97767751006012</v>
       </c>
       <c r="D148">
-        <v>3.979420414358022</v>
+        <v>3.978366155832972</v>
       </c>
       <c r="E148">
-        <v>3.976799282598642</v>
+        <v>4.477970052019471</v>
       </c>
       <c r="F148">
-        <v>3.974950106797068</v>
+        <v>4.129388640663617</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>3.986296504972502</v>
+        <v>4.411564684662561</v>
       </c>
       <c r="C149">
-        <v>4.299107260426653</v>
+        <v>3.968792415392716</v>
       </c>
       <c r="D149">
-        <v>3.97055946173379</v>
+        <v>3.969485038335187</v>
       </c>
       <c r="E149">
-        <v>3.96790820717524</v>
+        <v>4.460282354181778</v>
       </c>
       <c r="F149">
-        <v>3.966283667108292</v>
+        <v>4.119514068579361</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>3.977678854753986</v>
+        <v>4.39493983973294</v>
       </c>
       <c r="C150">
-        <v>4.284675073574004</v>
+        <v>3.959904228753395</v>
       </c>
       <c r="D150">
-        <v>3.961695378187084</v>
+        <v>3.960600801914222</v>
       </c>
       <c r="E150">
-        <v>3.959014074632063</v>
+        <v>4.442425440426681</v>
       </c>
       <c r="F150">
-        <v>3.957620345209056</v>
+        <v>4.109571877993962</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>3.969061690033314</v>
+        <v>4.378145661603056</v>
       </c>
       <c r="C151">
-        <v>4.270083714859042</v>
+        <v>3.95101310618749</v>
       </c>
       <c r="D151">
-        <v>3.952828323208055</v>
+        <v>3.951713603803618</v>
       </c>
       <c r="E151">
-        <v>3.950117038251093</v>
+        <v>4.424409233570121</v>
       </c>
       <c r="F151">
-        <v>3.948960305755095</v>
+        <v>4.099563056014023</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>3.960445167854981</v>
+        <v>4.361191483474744</v>
       </c>
       <c r="C152">
-        <v>4.255341825502087</v>
+        <v>3.942119195314247</v>
       </c>
       <c r="D152">
-        <v>3.943958425143423</v>
+        <v>3.942823592367505</v>
       </c>
       <c r="E152">
-        <v>3.941217244666133</v>
+        <v>4.406243217000149</v>
       </c>
       <c r="F152">
-        <v>3.940303705670311</v>
+        <v>4.08948857828292</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>3.951829442316595</v>
+        <v>4.34408630404632</v>
       </c>
       <c r="C153">
-        <v>4.240457635759133</v>
+        <v>3.933222635691239</v>
       </c>
       <c r="D153">
-        <v>3.935085840974057</v>
+        <v>3.933930909035909</v>
       </c>
       <c r="E153">
-        <v>3.9323148323067</v>
+        <v>4.387936450807584</v>
       </c>
       <c r="F153">
-        <v>3.931650693522416</v>
+        <v>4.079349405278442</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>3.94321465988223</v>
+        <v>4.326838785448704</v>
       </c>
       <c r="C154">
-        <v>4.225438984287876</v>
+        <v>3.924323561689234</v>
       </c>
       <c r="D154">
-        <v>3.926210708011598</v>
+        <v>3.925035689212685</v>
       </c>
       <c r="E154">
-        <v>3.923409933368754</v>
+        <v>4.369497590196</v>
       </c>
       <c r="F154">
-        <v>3.923001408652119</v>
+        <v>4.069146483580852</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>3.934600959058629</v>
+        <v>4.309457269206519</v>
       </c>
       <c r="C155">
-        <v>4.210293336665179</v>
+        <v>3.915422100509902</v>
       </c>
       <c r="D155">
-        <v>3.917333157609874</v>
+        <v>3.916138060652799</v>
       </c>
       <c r="E155">
-        <v>3.914502674018407</v>
+        <v>4.350934902405482</v>
       </c>
       <c r="F155">
-        <v>3.914355988893092</v>
+        <v>4.058880743764883</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>3.925988471650379</v>
+        <v>4.29194978071035</v>
       </c>
       <c r="C156">
-        <v>4.19502780353669</v>
+        <v>3.90651837213791</v>
       </c>
       <c r="D156">
-        <v>3.908453309251811</v>
+        <v>3.907238145026911</v>
       </c>
       <c r="E156">
-        <v>3.905593173171187</v>
+        <v>4.332256282993665</v>
       </c>
       <c r="F156">
-        <v>3.905714564944688</v>
+        <v>4.048553105574707</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>3.917377325792077</v>
+        <v>4.274324039617152</v>
       </c>
       <c r="C157">
-        <v>4.179649158004342</v>
+        <v>3.897612492277846</v>
       </c>
       <c r="D157">
-        <v>3.899571274063742</v>
+        <v>3.89833605891505</v>
       </c>
       <c r="E157">
-        <v>3.896681544893314</v>
+        <v>4.313469271376167</v>
       </c>
       <c r="F157">
-        <v>3.897077258809935</v>
+        <v>4.038164474621061</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>3.908767643228052</v>
+        <v>4.256587467718055</v>
       </c>
       <c r="C158">
-        <v>4.164163851713135</v>
+        <v>3.888704570532788</v>
       </c>
       <c r="D158">
-        <v>3.890687167668519</v>
+        <v>3.88943191232769</v>
       </c>
       <c r="E158">
-        <v>3.887767897683545</v>
+        <v>4.294581064967977</v>
       </c>
       <c r="F158">
-        <v>3.888444183372988</v>
+        <v>4.027715743538245</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>3.900159538086423</v>
+        <v>4.238747197621773</v>
       </c>
       <c r="C159">
-        <v>4.148578030421342</v>
+        <v>3.879794710048761</v>
       </c>
       <c r="D159">
-        <v>3.88180109613891</v>
+        <v>3.880525809928733</v>
       </c>
       <c r="E159">
-        <v>3.878852333819583</v>
+        <v>4.27559853621643</v>
       </c>
       <c r="F159">
-        <v>3.879815454004322</v>
+        <v>4.017207790920335</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>3.891553122184531</v>
+        <v>4.220810081935963</v>
       </c>
       <c r="C160">
-        <v>4.132897548438465</v>
+        <v>3.87088301043359</v>
       </c>
       <c r="D160">
-        <v>3.872913160824217</v>
+        <v>3.871617852054392</v>
       </c>
       <c r="E160">
-        <v>3.869934951613943</v>
+        <v>4.256528243234523</v>
       </c>
       <c r="F160">
-        <v>3.871191178523263</v>
+        <v>4.006641484013673</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>3.882948501844835</v>
+        <v>4.202782701483032</v>
       </c>
       <c r="C161">
-        <v>4.117127982989389</v>
+        <v>3.861969566094263</v>
       </c>
       <c r="D161">
-        <v>3.864023453744786</v>
+        <v>3.86270813343485</v>
       </c>
       <c r="E161">
-        <v>3.861015844360064</v>
+        <v>4.237376447270575</v>
       </c>
       <c r="F161">
-        <v>3.862571457347042</v>
+        <v>3.996017677474765</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>3.874345777738555</v>
+        <v>4.184671374761717</v>
       </c>
       <c r="C162">
-        <v>4.10127464749112</v>
+        <v>3.853054465763431</v>
       </c>
       <c r="D162">
-        <v>3.855132066102169</v>
+        <v>3.853796744117256</v>
       </c>
       <c r="E162">
-        <v>3.852095100140464</v>
+        <v>4.218149121270395</v>
       </c>
       <c r="F162">
-        <v>3.853956384390384</v>
+        <v>3.985337213787436</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>3.865745046659159</v>
+        <v>4.166482166160495</v>
       </c>
       <c r="C163">
-        <v>4.085342604217665</v>
+        <v>3.844137795155749</v>
       </c>
       <c r="D163">
-        <v>3.846239086005629</v>
+        <v>3.844883770445654</v>
       </c>
       <c r="E163">
-        <v>3.843172803589535</v>
+        <v>4.198851968261379</v>
       </c>
       <c r="F163">
-        <v>3.845346054222353</v>
+        <v>3.974600922716607</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>3.857146401940927</v>
+        <v>4.148220895164073</v>
       </c>
       <c r="C164">
-        <v>4.069336676602033</v>
+        <v>3.835219635572357</v>
       </c>
       <c r="D164">
-        <v>3.837344596841795</v>
+        <v>3.835969293984418</v>
       </c>
       <c r="E164">
-        <v>3.834249034934351</v>
+        <v>4.179490429216036</v>
       </c>
       <c r="F164">
-        <v>3.836740555390119</v>
+        <v>3.963809622923356</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>3.848549932522352</v>
+        <v>4.129893144416842</v>
       </c>
       <c r="C165">
-        <v>4.053261460605283</v>
+        <v>3.826300063352686</v>
       </c>
       <c r="D165">
-        <v>3.828448678461894</v>
+        <v>3.827053392207586</v>
       </c>
       <c r="E165">
-        <v>3.825323870058297</v>
+        <v>4.160069698225266</v>
       </c>
       <c r="F165">
-        <v>3.828139971042512</v>
+        <v>3.952964121675601</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>3.839955722571298</v>
+        <v>4.111504268675164</v>
       </c>
       <c r="C166">
-        <v>4.037121335559653</v>
+        <v>3.817379152252868</v>
       </c>
       <c r="D166">
-        <v>3.819551398338971</v>
+        <v>3.818136139430872</v>
       </c>
       <c r="E166">
-        <v>3.816397381807638</v>
+        <v>4.140594729372921</v>
       </c>
       <c r="F166">
-        <v>3.819544380044249</v>
+        <v>3.942065214863814</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>3.831363854276699</v>
+        <v>4.093059402031471</v>
       </c>
       <c r="C167">
-        <v>4.020920474946338</v>
+        <v>3.808456972269315</v>
       </c>
       <c r="D167">
-        <v>3.810652832009853</v>
+        <v>3.809217605882684</v>
       </c>
       <c r="E167">
-        <v>3.807469639157558</v>
+        <v>4.121070253241386</v>
       </c>
       <c r="F167">
-        <v>3.810953859769564</v>
+        <v>3.931113686605894</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>3.822774406146674</v>
+        <v>4.07456346735503</v>
       </c>
       <c r="C168">
-        <v>4.00466285489707</v>
+        <v>3.799533589124601</v>
       </c>
       <c r="D168">
-        <v>3.801753048086756</v>
+        <v>3.800297858220342</v>
       </c>
       <c r="E168">
-        <v>3.798540707502603</v>
+        <v>4.101500780885727</v>
       </c>
       <c r="F168">
-        <v>3.802368483430267</v>
+        <v>3.920110310421241</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3.814187452171762</v>
+        <v>4.056021182301365</v>
       </c>
       <c r="C169">
-        <v>3.988352267016049</v>
+        <v>3.790609066257268</v>
       </c>
       <c r="D169">
-        <v>3.792852112506969</v>
+        <v>3.791376960421268</v>
       </c>
       <c r="E169">
-        <v>3.789610649536784</v>
+        <v>4.081890620311704</v>
       </c>
       <c r="F169">
-        <v>3.793788319947809</v>
+        <v>3.909055849515656</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>3.805603064468573</v>
+        <v>4.037437068769331</v>
       </c>
       <c r="C170">
-        <v>3.971992322445252</v>
+        <v>3.781683463916786</v>
       </c>
       <c r="D170">
-        <v>3.783950086071468</v>
+        <v>3.782454972955333</v>
       </c>
       <c r="E170">
-        <v>3.780679524214854</v>
+        <v>4.062243879314093</v>
       </c>
       <c r="F170">
-        <v>3.785213435146126</v>
+        <v>3.897951056430167</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3.797021312328041</v>
+        <v>4.01881545866684</v>
       </c>
       <c r="C171">
-        <v>3.955586465208913</v>
+        <v>3.772756838774833</v>
       </c>
       <c r="D171">
-        <v>3.775047021082668</v>
+        <v>3.773531953169368</v>
       </c>
       <c r="E171">
-        <v>3.771747387673632</v>
+        <v>4.042564481266365</v>
       </c>
       <c r="F171">
-        <v>3.776643893184097</v>
+        <v>3.886796672743257</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>3.788442261787349</v>
+        <v>4.000160502538058</v>
       </c>
       <c r="C172">
-        <v>3.939137981263741</v>
+        <v>3.763829245304961</v>
       </c>
       <c r="D172">
-        <v>3.766142977386912</v>
+        <v>3.76460795614368</v>
       </c>
       <c r="E172">
-        <v>3.762814293979688</v>
+        <v>4.022856167364134</v>
       </c>
       <c r="F172">
-        <v>3.768079755084051</v>
+        <v>3.875593429846748</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3.779865975755071</v>
+        <v>3.981476175675742</v>
       </c>
       <c r="C173">
-        <v>3.922649997270569</v>
+        <v>3.754900735402488</v>
       </c>
       <c r="D173">
-        <v>3.757238008513911</v>
+        <v>3.755683033946671</v>
       </c>
       <c r="E173">
-        <v>3.753880294619483</v>
+        <v>4.003122511312631</v>
       </c>
       <c r="F173">
-        <v>3.759521078233053</v>
+        <v>3.86434204990629</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3.771292515720235</v>
+        <v>3.9627662842832</v>
       </c>
       <c r="C174">
-        <v>3.906125505304071</v>
+        <v>3.745971357384987</v>
       </c>
       <c r="D174">
-        <v>3.74833216581577</v>
+        <v>3.746757235917055</v>
       </c>
       <c r="E174">
-        <v>3.744945438233683</v>
+        <v>3.983366920920491</v>
       </c>
       <c r="F174">
-        <v>3.750967917822055</v>
+        <v>3.853043245014276</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>3.762721940539908</v>
+        <v>3.9440344743236</v>
       </c>
       <c r="C175">
-        <v>3.889567345353116</v>
+        <v>3.737041157968296</v>
       </c>
       <c r="D175">
-        <v>3.73942549458662</v>
+        <v>3.737830609468858</v>
       </c>
       <c r="E175">
-        <v>3.736009769408695</v>
+        <v>3.963592652169726</v>
       </c>
       <c r="F175">
-        <v>3.742420327681179</v>
+        <v>3.841697717289328</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>3.754154305764173</v>
+        <v>3.925284238693072</v>
       </c>
       <c r="C176">
-        <v>3.872978238365968</v>
+        <v>3.728110181937698</v>
       </c>
       <c r="D176">
-        <v>3.730518038403665</v>
+        <v>3.728903199434408</v>
       </c>
       <c r="E176">
-        <v>3.727073333631939</v>
+        <v>3.943802809958291</v>
       </c>
       <c r="F176">
-        <v>3.733878359188874</v>
+        <v>3.830306159103956</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3.745589666012342</v>
+        <v>3.906518913939527</v>
       </c>
       <c r="C177">
-        <v>3.856360769742533</v>
+        <v>3.719178472001115</v>
       </c>
       <c r="D177">
-        <v>3.721609842464197</v>
+        <v>3.719975048265514</v>
       </c>
       <c r="E177">
-        <v>3.718136173544627</v>
+        <v>3.924000361584764</v>
       </c>
       <c r="F177">
-        <v>3.72534205962278</v>
+        <v>3.818869254335744</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3.737028073593903</v>
+        <v>3.887741703914393</v>
       </c>
       <c r="C178">
-        <v>3.839717411449913</v>
+        <v>3.710246068710781</v>
       </c>
       <c r="D178">
-        <v>3.712700948106829</v>
+        <v>3.711046196771082</v>
       </c>
       <c r="E178">
-        <v>3.709198330193608</v>
+        <v>3.904188136925291</v>
       </c>
       <c r="F178">
-        <v>3.71681147501434</v>
+        <v>3.80738767749149</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>3.728469578520205</v>
+        <v>3.868955672639882</v>
       </c>
       <c r="C179">
-        <v>3.823050517942738</v>
+        <v>3.701313007952611</v>
       </c>
       <c r="D179">
-        <v>3.703791394858597</v>
+        <v>3.702116683551096</v>
       </c>
       <c r="E179">
-        <v>3.700259837504062</v>
+        <v>3.884368841118953</v>
       </c>
       <c r="F179">
-        <v>3.708286650595</v>
+        <v>3.795862093897763</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>3.719914228962898</v>
+        <v>3.850163745047925</v>
       </c>
       <c r="C180">
-        <v>3.806362333846129</v>
+        <v>3.692379327972379</v>
       </c>
       <c r="D180">
-        <v>3.694881217488843</v>
+        <v>3.693186545134646</v>
       </c>
       <c r="E180">
-        <v>3.691320733446838</v>
+        <v>3.86454505447444</v>
       </c>
       <c r="F180">
-        <v>3.699767629234627</v>
+        <v>3.784293159552162</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>3.71136207182002</v>
+        <v>3.831368733080728</v>
       </c>
       <c r="C181">
-        <v>3.789655003914943</v>
+        <v>3.683445064150549</v>
       </c>
       <c r="D181">
-        <v>3.685970451917324</v>
+        <v>3.684255816645047</v>
       </c>
       <c r="E181">
-        <v>3.682381053075879</v>
+        <v>3.844719244240755</v>
       </c>
       <c r="F181">
-        <v>3.69125445086982</v>
+        <v>3.772681522761567</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3.702813152155843</v>
+        <v>3.812573319584982</v>
       </c>
       <c r="C182">
-        <v>3.77293057400987</v>
+        <v>3.6745102505887</v>
       </c>
       <c r="D182">
-        <v>3.677059132136078</v>
+        <v>3.675324531166142</v>
       </c>
       <c r="E182">
-        <v>3.67344082975201</v>
+        <v>3.824893764294758</v>
       </c>
       <c r="F182">
-        <v>3.682747154433423</v>
+        <v>3.761027823052805</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>3.694267512879353</v>
+        <v>3.79378007021892</v>
       </c>
       <c r="C183">
-        <v>3.756190999227683</v>
+        <v>3.665574917202976</v>
       </c>
       <c r="D183">
-        <v>3.668147290301564</v>
+        <v>3.666392719851896</v>
       </c>
       <c r="E183">
-        <v>3.664500093362834</v>
+        <v>3.80507086611358</v>
       </c>
       <c r="F183">
-        <v>3.674245777703975</v>
+        <v>3.74933269154452</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>3.685725196186089</v>
+        <v>3.774991448123467</v>
       </c>
       <c r="C184">
-        <v>3.739438140613484</v>
+        <v>3.656639091767857</v>
       </c>
       <c r="D184">
-        <v>3.659234956955148</v>
+        <v>3.657460413034407</v>
       </c>
       <c r="E184">
-        <v>3.655558872373581</v>
+        <v>3.785252698190498</v>
       </c>
       <c r="F184">
-        <v>3.665750356737317</v>
+        <v>3.737596750613421</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>3.677186242695383</v>
+        <v>3.756209799637857</v>
       </c>
       <c r="C185">
-        <v>3.722673781238607</v>
+        <v>3.647702804938034</v>
       </c>
       <c r="D185">
-        <v>3.650322159226939</v>
+        <v>3.648527639502461</v>
       </c>
       <c r="E185">
-        <v>3.646617195974429</v>
+        <v>3.765441316306833</v>
       </c>
       <c r="F185">
-        <v>3.657260924995534</v>
+        <v>3.725820615463828</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>3.668650691203993</v>
+        <v>3.737437375573885</v>
       </c>
       <c r="C186">
-        <v>3.705899619714607</v>
+        <v>3.638766084311816</v>
       </c>
       <c r="D186">
-        <v>3.641408925748598</v>
+        <v>3.6395944268454</v>
       </c>
       <c r="E186">
-        <v>3.637675091071541</v>
+        <v>3.745638682739905</v>
       </c>
       <c r="F186">
-        <v>3.648777515355258</v>
+        <v>3.714004893178905</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3.660118579516683</v>
+        <v>3.718676330183183</v>
       </c>
       <c r="C187">
-        <v>3.68911728139492</v>
+        <v>3.629828956429166</v>
       </c>
       <c r="D187">
-        <v>3.632495282963916</v>
+        <v>3.630660799685231</v>
       </c>
       <c r="E187">
-        <v>3.628732583075708</v>
+        <v>3.725846675402773</v>
       </c>
       <c r="F187">
-        <v>3.640300159576395</v>
+        <v>3.70215018310082</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>3.651589944411887</v>
+        <v>3.699928717963797</v>
       </c>
       <c r="C188">
-        <v>3.672328317226509</v>
+        <v>3.620891442732311</v>
       </c>
       <c r="D188">
-        <v>3.623581256243789</v>
+        <v>3.621726783131021</v>
       </c>
       <c r="E188">
-        <v>3.619789694917556</v>
+        <v>3.706067085148392</v>
       </c>
       <c r="F188">
-        <v>3.631828888007952</v>
+        <v>3.69025707619271</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3.643064821377024</v>
+        <v>3.681196511476846</v>
       </c>
       <c r="C189">
-        <v>3.655534207114103</v>
+        <v>3.611953567392321</v>
       </c>
       <c r="D189">
-        <v>3.614666868880025</v>
+        <v>3.612792401231612</v>
       </c>
       <c r="E189">
-        <v>3.61084645021558</v>
+        <v>3.686301630353326</v>
       </c>
       <c r="F189">
-        <v>3.623363729322889</v>
+        <v>3.678326157002298</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3.634543244621342</v>
+        <v>3.662481595246609</v>
       </c>
       <c r="C190">
-        <v>3.638736368135278</v>
+        <v>3.603015353049098</v>
       </c>
       <c r="D190">
-        <v>3.605752142065938</v>
+        <v>3.603857676907953</v>
       </c>
       <c r="E190">
-        <v>3.601902870863505</v>
+        <v>3.666551955422836</v>
       </c>
       <c r="F190">
-        <v>3.614904711518255</v>
+        <v>3.666358002460236</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>3.626025247689923</v>
+        <v>3.643785768023487</v>
       </c>
       <c r="C191">
-        <v>3.621936153089026</v>
+        <v>3.594076820916551</v>
       </c>
       <c r="D191">
-        <v>3.596837098526072</v>
+        <v>3.594922631469323</v>
       </c>
       <c r="E191">
-        <v>3.592958977774605</v>
+        <v>3.646819621918838</v>
       </c>
       <c r="F191">
-        <v>3.606451861577229</v>
+        <v>3.654353182379972</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3.617510863112992</v>
+        <v>3.625110757543868</v>
       </c>
       <c r="C192">
-        <v>3.60513485724975</v>
+        <v>3.585137990971484</v>
       </c>
       <c r="D192">
-        <v>3.58792175905522</v>
+        <v>3.585987282607866</v>
       </c>
       <c r="E192">
-        <v>3.584014789943365</v>
+        <v>3.6271061410086</v>
       </c>
       <c r="F192">
-        <v>3.598005205483896</v>
+        <v>3.642312258693333</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>3.609000121907264</v>
+        <v>3.606458211546901</v>
       </c>
       <c r="C193">
-        <v>3.588333715531489</v>
+        <v>3.576198880936931</v>
       </c>
       <c r="D193">
-        <v>3.579006143640349</v>
+        <v>3.577051651282062</v>
       </c>
       <c r="E193">
-        <v>3.575070326363142</v>
+        <v>3.607412958836199</v>
       </c>
       <c r="F193">
-        <v>3.589564767402321</v>
+        <v>3.630235787433211</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>3.600493054771494</v>
+        <v>3.587829706234019</v>
       </c>
       <c r="C194">
-        <v>3.571533912543553</v>
+        <v>3.567259509590995</v>
       </c>
       <c r="D194">
-        <v>3.57009026947616</v>
+        <v>3.568115756097899</v>
       </c>
       <c r="E194">
-        <v>3.566125605077276</v>
+        <v>3.587741436160851</v>
       </c>
       <c r="F194">
-        <v>3.581130571439159</v>
+        <v>3.618124317555737</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3.591989691500169</v>
+        <v>3.569226754123005</v>
       </c>
       <c r="C195">
-        <v>3.554736579775146</v>
+        <v>3.558319894159902</v>
       </c>
       <c r="D195">
-        <v>3.561174153941819</v>
+        <v>3.559179614933384</v>
       </c>
       <c r="E195">
-        <v>3.557180643257837</v>
+        <v>3.568092903552065</v>
       </c>
       <c r="F195">
-        <v>3.572702640765772</v>
+        <v>3.60597839141491</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3.583490060966064</v>
+        <v>3.550650794701065</v>
       </c>
       <c r="C196">
-        <v>3.537942801239069</v>
+        <v>3.549380051105068</v>
       </c>
       <c r="D196">
-        <v>3.552257814569636</v>
+        <v>3.550243243171866</v>
       </c>
       <c r="E196">
-        <v>3.548235456883075</v>
+        <v>3.548468631506421</v>
       </c>
       <c r="F196">
-        <v>3.564280997729913</v>
+        <v>3.593798544106352</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3.574994191214425</v>
+        <v>3.53210321041348</v>
       </c>
       <c r="C197">
-        <v>3.52115361408752</v>
+        <v>3.540439995571039</v>
       </c>
       <c r="D197">
-        <v>3.543341267540848</v>
+        <v>3.541306656154247</v>
       </c>
       <c r="E197">
-        <v>3.539290061078652</v>
+        <v>3.528869817359101</v>
       </c>
       <c r="F197">
-        <v>3.555865663189441</v>
+        <v>3.581585305034589</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3.566502109810068</v>
+        <v>3.513585323716138</v>
       </c>
       <c r="C198">
-        <v>3.50437001001976</v>
+        <v>3.531499742028293</v>
       </c>
       <c r="D198">
-        <v>3.534424528374925</v>
+        <v>3.532369869501441</v>
       </c>
       <c r="E198">
-        <v>3.530344470951132</v>
+        <v>3.50929762911014</v>
       </c>
       <c r="F198">
-        <v>3.547456658061436</v>
+        <v>3.569339197239791</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>3.558013843586429</v>
+        <v>3.495098394399553</v>
       </c>
       <c r="C199">
-        <v>3.487592940909299</v>
+        <v>3.522559304892859</v>
       </c>
       <c r="D199">
-        <v>3.525507609697112</v>
+        <v>3.523432897549479</v>
       </c>
       <c r="E199">
-        <v>3.521398700721694</v>
+        <v>3.48975318318982</v>
       </c>
       <c r="F199">
-        <v>3.539054002426223</v>
+        <v>3.557060737569059</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>3.549529418405205</v>
+        <v>3.476643633651352</v>
       </c>
       <c r="C200">
-        <v>3.470823317398676</v>
+        <v>3.513618697679922</v>
       </c>
       <c r="D200">
-        <v>3.516590525999352</v>
+        <v>3.514495753946624</v>
       </c>
       <c r="E200">
-        <v>3.51245276384748</v>
+        <v>3.470237540510009</v>
       </c>
       <c r="F200">
-        <v>3.530657715739329</v>
+        <v>3.544750436312797</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>3.541048859911235</v>
+        <v>3.458222197906911</v>
       </c>
       <c r="C201">
-        <v>3.454062013953823</v>
+        <v>3.504677933357779</v>
       </c>
       <c r="D201">
-        <v>3.507673290380056</v>
+        <v>3.505558450566868</v>
       </c>
       <c r="E201">
-        <v>3.503506671758443</v>
+        <v>3.450751727295327</v>
       </c>
       <c r="F201">
-        <v>3.52226781589856</v>
+        <v>3.532408798181993</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>3.532572193082349</v>
+        <v>3.439835191093527</v>
       </c>
       <c r="C202">
-        <v>3.43730986630494</v>
+        <v>3.495737023226154</v>
       </c>
       <c r="D202">
-        <v>3.498755915270089</v>
+        <v>3.496621000131027</v>
       </c>
       <c r="E202">
-        <v>3.4945604372211</v>
+        <v>3.431296729008982</v>
       </c>
       <c r="F202">
-        <v>3.513884321270059</v>
+        <v>3.520036322179336</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>3.524099442257036</v>
+        <v>3.421483673967637</v>
       </c>
       <c r="C203">
-        <v>3.420567678346882</v>
+        <v>3.486795979297769</v>
       </c>
       <c r="D203">
-        <v>3.489838412518177</v>
+        <v>3.487683414284493</v>
       </c>
       <c r="E203">
-        <v>3.485614071784929</v>
+        <v>3.411873485691461</v>
       </c>
       <c r="F203">
-        <v>3.505507249338037</v>
+        <v>3.507633501524273</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>3.51563063129255</v>
+        <v>3.403168657985909</v>
       </c>
       <c r="C204">
-        <v>3.403836219897907</v>
+        <v>3.477854812816633</v>
       </c>
       <c r="D204">
-        <v>3.480920793353242</v>
+        <v>3.47874570415158</v>
       </c>
       <c r="E204">
-        <v>3.476667586504278</v>
+        <v>3.392482904416058</v>
       </c>
       <c r="F204">
-        <v>3.497136617064762</v>
+        <v>3.495200823444606</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>3.507165783668274</v>
+        <v>3.384891111457492</v>
       </c>
       <c r="C205">
-        <v>3.387116230223205</v>
+        <v>3.468913534536609</v>
       </c>
       <c r="D205">
-        <v>3.472003068689809</v>
+        <v>3.469807880059744</v>
       </c>
       <c r="E205">
-        <v>3.467720991272054</v>
+        <v>3.373125858978869</v>
       </c>
       <c r="F205">
-        <v>3.488772440397624</v>
+        <v>3.482738769796551</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>3.498704922356982</v>
+        <v>3.366651963716401</v>
       </c>
       <c r="C206">
-        <v>3.37040841938632</v>
+        <v>3.459972154396612</v>
       </c>
       <c r="D206">
-        <v>3.463085248954143</v>
+        <v>3.46086995171875</v>
       </c>
       <c r="E206">
-        <v>3.45877429604267</v>
+        <v>3.353803185210109</v>
       </c>
       <c r="F206">
-        <v>3.480414735401867</v>
+        <v>3.470247817306497</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3.490248069717344</v>
+        <v>3.348452099158886</v>
       </c>
       <c r="C207">
-        <v>3.353713468847398</v>
+        <v>3.451030680743156</v>
       </c>
       <c r="D207">
-        <v>3.454167344188249</v>
+        <v>3.451931928886461</v>
       </c>
       <c r="E207">
-        <v>3.449827510356321</v>
+        <v>3.334515689432653</v>
       </c>
       <c r="F207">
-        <v>3.472063517505774</v>
+        <v>3.457728437299138</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3.481795247956955</v>
+        <v>3.330292368351602</v>
       </c>
       <c r="C208">
-        <v>3.337032034497109</v>
+        <v>3.442089123366046</v>
       </c>
       <c r="D208">
-        <v>3.445249363093712</v>
+        <v>3.442993820691973</v>
       </c>
       <c r="E208">
-        <v>3.440880643231962</v>
+        <v>3.31526415091699</v>
       </c>
       <c r="F208">
-        <v>3.463718801700665</v>
+        <v>3.445181095652947</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>3.473346478844496</v>
+        <v>3.312173584854698</v>
       </c>
       <c r="C209">
-        <v>3.320364745750284</v>
+        <v>3.433147490946534</v>
       </c>
       <c r="D209">
-        <v>3.436331313699905</v>
+        <v>3.434055635889904</v>
       </c>
       <c r="E209">
-        <v>3.431933702991334</v>
+        <v>3.296049314180954</v>
       </c>
       <c r="F209">
-        <v>3.455380602146421</v>
+        <v>3.432606253102522</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>3.464901783652528</v>
+        <v>3.294096523988554</v>
       </c>
       <c r="C210">
-        <v>3.303712209514849</v>
+        <v>3.42420579180084</v>
       </c>
       <c r="D210">
-        <v>3.427413205003599</v>
+        <v>3.425117382207251</v>
       </c>
       <c r="E210">
-        <v>3.422986697342515</v>
+        <v>3.276871896895714</v>
       </c>
       <c r="F210">
-        <v>3.447048933121469</v>
+        <v>3.420004365744846</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3.456461183421236</v>
+        <v>3.276061931992714</v>
       </c>
       <c r="C211">
-        <v>3.287075008306494</v>
+        <v>3.415264033386918</v>
       </c>
       <c r="D211">
-        <v>3.418495044994271</v>
+        <v>3.416179067696047</v>
       </c>
       <c r="E211">
-        <v>3.414039634159423</v>
+        <v>3.257732595765164</v>
       </c>
       <c r="F211">
-        <v>3.438723808375911</v>
+        <v>3.407375884656888</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>3.44802469890594</v>
+        <v>3.258070521515524</v>
       </c>
       <c r="C212">
-        <v>3.270453704415835</v>
+        <v>3.406322222964025</v>
       </c>
       <c r="D212">
-        <v>3.409576841308759</v>
+        <v>3.407240699963208</v>
       </c>
       <c r="E212">
-        <v>3.405092520724631</v>
+        <v>3.238632078201904</v>
       </c>
       <c r="F212">
-        <v>3.430405241301445</v>
+        <v>3.394721255935651</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>3.439592350501335</v>
+        <v>3.240122973381163</v>
       </c>
       <c r="C213">
-        <v>3.253848838687125</v>
+        <v>3.397380367808162</v>
       </c>
       <c r="D213">
-        <v>3.400658601117306</v>
+        <v>3.398302286271216</v>
       </c>
       <c r="E213">
-        <v>3.396145363969274</v>
+        <v>3.219570987088166</v>
       </c>
       <c r="F213">
-        <v>3.422093244743641</v>
+        <v>3.382040920771274</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>3.43116415822992</v>
+        <v>3.222219942370726</v>
       </c>
       <c r="C214">
-        <v>3.237260932541952</v>
+        <v>3.38843847468589</v>
       </c>
       <c r="D214">
-        <v>3.391740331392342</v>
+        <v>3.389363833318493</v>
       </c>
       <c r="E214">
-        <v>3.387198170321678</v>
+        <v>3.200549947180134</v>
       </c>
       <c r="F214">
-        <v>3.413787831522134</v>
+        <v>3.369335316189986</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>3.422740142004861</v>
+        <v>3.204362053028804</v>
       </c>
       <c r="C215">
-        <v>3.220690489146721</v>
+        <v>3.379496550077001</v>
       </c>
       <c r="D215">
-        <v>3.382822038841258</v>
+        <v>3.38042534683396</v>
       </c>
       <c r="E215">
-        <v>3.378250946137118</v>
+        <v>3.181569558752268</v>
       </c>
       <c r="F215">
-        <v>3.405489014084603</v>
+        <v>3.356604874542342</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>3.414320321452602</v>
+        <v>3.186549904057159</v>
       </c>
       <c r="C216">
-        <v>3.204137993387745</v>
+        <v>3.370554599330021</v>
       </c>
       <c r="D216">
-        <v>3.373903729892123</v>
+        <v>3.371486833390819</v>
       </c>
       <c r="E216">
-        <v>3.369303697412819</v>
+        <v>3.162630399963261</v>
       </c>
       <c r="F216">
-        <v>3.397196804577022</v>
+        <v>3.343850023641825</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>3.405904715839247</v>
+        <v>3.168784070387445</v>
       </c>
       <c r="C217">
-        <v>3.187603914223943</v>
+        <v>3.361612628495029</v>
       </c>
       <c r="D217">
-        <v>3.364985410683867</v>
+        <v>3.362548298858751</v>
       </c>
       <c r="E217">
-        <v>3.360356429891437</v>
+        <v>3.143733033732302</v>
       </c>
       <c r="F217">
-        <v>3.388911214638868</v>
+        <v>3.331071186658534</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>3.397493344349388</v>
+        <v>3.151065099476698</v>
       </c>
       <c r="C218">
-        <v>3.171088704202461</v>
+        <v>3.352670643019838</v>
       </c>
       <c r="D218">
-        <v>3.356067085643626</v>
+        <v>3.353609748860499</v>
       </c>
       <c r="E218">
-        <v>3.351409148711935</v>
+        <v>3.124878002593535</v>
       </c>
       <c r="F218">
-        <v>3.380632255995465</v>
+        <v>3.318268782988541</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>3.389086225937215</v>
+        <v>3.133393518733992</v>
       </c>
       <c r="C219">
-        <v>3.154592801601754</v>
+        <v>3.34372864808614</v>
       </c>
       <c r="D219">
-        <v>3.347148760770676</v>
+        <v>3.344671188401445</v>
       </c>
       <c r="E219">
-        <v>3.342461858997028</v>
+        <v>3.106065830012693</v>
       </c>
       <c r="F219">
-        <v>3.372359940039252</v>
+        <v>3.305443227696784</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3.380683379319131</v>
+        <v>3.115769832769877</v>
       </c>
       <c r="C220">
-        <v>3.138116629461571</v>
+        <v>3.334786648601396</v>
       </c>
       <c r="D220">
-        <v>3.338230441153742</v>
+        <v>3.335732622467524</v>
       </c>
       <c r="E220">
-        <v>3.333514565724499</v>
+        <v>3.087297026116966</v>
       </c>
       <c r="F220">
-        <v>3.36409427791497</v>
+        <v>3.292594931709667</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3.372284823015176</v>
+        <v>3.098194523139356</v>
       </c>
       <c r="C221">
-        <v>3.121660598136698</v>
+        <v>3.325844649185032</v>
       </c>
       <c r="D221">
-        <v>3.32931213163942</v>
+        <v>3.326794055948648</v>
       </c>
       <c r="E221">
-        <v>3.324567273583087</v>
+        <v>3.068572083914735</v>
       </c>
       <c r="F221">
-        <v>3.355835280395311</v>
+        <v>3.279724301563708</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>3.363890575451642</v>
+        <v>3.080668053807648</v>
       </c>
       <c r="C222">
-        <v>3.105225104725909</v>
+        <v>3.316902654359228</v>
       </c>
       <c r="D222">
-        <v>3.32039383689981</v>
+        <v>3.317855493424441</v>
       </c>
       <c r="E222">
-        <v>3.315619986965479</v>
+        <v>3.049891479161326</v>
       </c>
       <c r="F222">
-        <v>3.347582958300996</v>
+        <v>3.26683174039504</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>3.355500654875802</v>
+        <v>3.063190868232525</v>
       </c>
       <c r="C223">
-        <v>3.088810534089558</v>
+        <v>3.307960668409482</v>
       </c>
       <c r="D223">
-        <v>3.311475561498048</v>
+        <v>3.308916939230944</v>
       </c>
       <c r="E223">
-        <v>3.306672709950499</v>
+        <v>3.03125567709984</v>
       </c>
       <c r="F223">
-        <v>3.339337322198943</v>
+        <v>3.253917647325888</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>3.347115079313532</v>
+        <v>3.045763390688948</v>
       </c>
       <c r="C224">
-        <v>3.072417259866461</v>
+        <v>3.299018695446762</v>
       </c>
       <c r="D224">
-        <v>3.302557309650541</v>
+        <v>3.299978397048943</v>
       </c>
       <c r="E224">
-        <v>3.297725446676988</v>
+        <v>3.012665128265264</v>
       </c>
       <c r="F224">
-        <v>3.331098382441637</v>
+        <v>3.240982417708532</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>3.338733866754098</v>
+        <v>3.028386029643349</v>
       </c>
       <c r="C225">
-        <v>3.0560456442963</v>
+        <v>3.290076739068267</v>
       </c>
       <c r="D225">
-        <v>3.29363908547714</v>
+        <v>3.291039870962648</v>
       </c>
       <c r="E225">
-        <v>3.288778201021044</v>
+        <v>2.994120267771879</v>
       </c>
       <c r="F225">
-        <v>3.322866149069455</v>
+        <v>3.228026442792985</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>3.330357035043007</v>
+        <v>3.011059175031754</v>
       </c>
       <c r="C226">
-        <v>3.039696039790528</v>
+        <v>3.281134802878603</v>
       </c>
       <c r="D226">
-        <v>3.284720892953199</v>
+        <v>3.282101364655625</v>
       </c>
       <c r="E226">
-        <v>3.2798309766926</v>
+        <v>2.975621522203819</v>
       </c>
       <c r="F226">
-        <v>3.314640632198823</v>
+        <v>3.215050110729424</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>3.321984601801323</v>
+        <v>2.993783201319498</v>
       </c>
       <c r="C227">
-        <v>3.023368788521632</v>
+        <v>3.272192890470178</v>
       </c>
       <c r="D227">
-        <v>3.275802735356942</v>
+        <v>3.273162881638504</v>
       </c>
       <c r="E227">
-        <v>3.270883776772669</v>
+        <v>2.957169305570963</v>
       </c>
       <c r="F227">
-        <v>3.306421841728695</v>
+        <v>3.202053805971512</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>3.313616584608626</v>
+        <v>2.976558468371815</v>
       </c>
       <c r="C228">
-        <v>3.0070642239091</v>
+        <v>3.263251005184074</v>
       </c>
       <c r="D228">
-        <v>3.266884615925674</v>
+        <v>3.26422442521828</v>
       </c>
       <c r="E228">
-        <v>3.261936604748863</v>
+        <v>2.938764018010203</v>
       </c>
       <c r="F228">
-        <v>3.298209787389928</v>
+        <v>3.189037909533295</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3.305253001013067</v>
+        <v>2.959385319372824</v>
       </c>
       <c r="C229">
-        <v>2.990782670244002</v>
+        <v>3.254309150217683</v>
       </c>
       <c r="D229">
-        <v>3.25796653817998</v>
+        <v>3.255285998543889</v>
       </c>
       <c r="E229">
-        <v>3.252989463765574</v>
+        <v>2.920406052727715</v>
       </c>
       <c r="F229">
-        <v>3.290004478708882</v>
+        <v>3.176002798624631</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3.2968938684656</v>
+        <v>2.942264085331697</v>
       </c>
       <c r="C230">
-        <v>2.97452444392285</v>
+        <v>3.245367328370137</v>
       </c>
       <c r="D230">
-        <v>3.249048505246911</v>
+        <v>3.246347604673706</v>
       </c>
       <c r="E230">
-        <v>3.244042356829401</v>
+        <v>2.902095792142792</v>
       </c>
       <c r="F230">
-        <v>3.281805925227959</v>
+        <v>3.162948847607001</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>3.288539204364882</v>
+        <v>2.925195083299345</v>
       </c>
       <c r="C231">
-        <v>2.9582898533713</v>
+        <v>3.236425542646185</v>
       </c>
       <c r="D231">
-        <v>3.240130520109584</v>
+        <v>3.237409246512813</v>
       </c>
       <c r="E231">
-        <v>3.235095286695091</v>
+        <v>2.883833606735652</v>
       </c>
       <c r="F231">
-        <v>3.273614136337667</v>
+        <v>3.149876427468668</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3.28018902587889</v>
+        <v>2.908178616351191</v>
       </c>
       <c r="C232">
-        <v>2.942079199519742</v>
+        <v>3.227483795819106</v>
       </c>
       <c r="D232">
-        <v>3.231212585794468</v>
+        <v>3.228470926848819</v>
       </c>
       <c r="E232">
-        <v>3.226148256043155</v>
+        <v>2.865619860851</v>
       </c>
       <c r="F232">
-        <v>3.265429121241075</v>
+        <v>3.1367859060349</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3.271843350060389</v>
+        <v>2.891214976790446</v>
       </c>
       <c r="C233">
-        <v>2.925892776597512</v>
+        <v>3.218542090558703</v>
       </c>
       <c r="D233">
-        <v>3.222294705043957</v>
+        <v>3.219532648018337</v>
       </c>
       <c r="E233">
-        <v>3.217201267486851</v>
+        <v>2.847454909729453</v>
       </c>
       <c r="F233">
-        <v>3.257250888953952</v>
+        <v>3.123677647719874</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3.263502194242985</v>
+        <v>2.874304443611522</v>
       </c>
       <c r="C234">
-        <v>2.909730871719018</v>
+        <v>3.209600429262998</v>
       </c>
       <c r="D234">
-        <v>3.213376880530463</v>
+        <v>3.210594412612759</v>
       </c>
       <c r="E234">
-        <v>3.20825432349196</v>
+        <v>2.829339098301481</v>
       </c>
       <c r="F234">
-        <v>3.249079448635024</v>
+        <v>3.110552014180458</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>3.255165575598467</v>
+        <v>2.857447284104446</v>
       </c>
       <c r="C235">
-        <v>2.893593766240229</v>
+        <v>3.200658814029911</v>
       </c>
       <c r="D235">
-        <v>3.20445911485551</v>
+        <v>3.20165622301101</v>
       </c>
       <c r="E235">
-        <v>3.199307426357893</v>
+        <v>2.811272766162638</v>
       </c>
       <c r="F235">
-        <v>3.240914809287566</v>
+        <v>3.097409364093699</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>3.246833511291524</v>
+        <v>2.840643756946344</v>
       </c>
       <c r="C236">
-        <v>2.877481735543753</v>
+        <v>3.191717247270706</v>
       </c>
       <c r="D236">
-        <v>3.195541410448231</v>
+        <v>3.192718081480116</v>
       </c>
       <c r="E236">
-        <v>3.190360578160984</v>
+        <v>2.793256245145542</v>
       </c>
       <c r="F236">
-        <v>3.232756979859871</v>
+        <v>3.084250053217461</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>3.238506018321669</v>
+        <v>2.82389411060028</v>
       </c>
       <c r="C237">
-        <v>2.861395049594489</v>
+        <v>3.182775731124222</v>
       </c>
       <c r="D237">
-        <v>3.186623768985789</v>
+        <v>3.183779990144161</v>
       </c>
       <c r="E237">
-        <v>3.181413781069781</v>
+        <v>2.775289858386753</v>
       </c>
       <c r="F237">
-        <v>3.224605969257153</v>
+        <v>3.071074434005897</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>3.230183113096523</v>
+        <v>2.807198582000596</v>
       </c>
       <c r="C238">
-        <v>2.845333973191617</v>
+        <v>3.173834267636412</v>
       </c>
       <c r="D238">
-        <v>3.177706192944727</v>
+        <v>3.174841950958933</v>
       </c>
       <c r="E238">
-        <v>3.172467037079797</v>
+        <v>2.757373924110584</v>
       </c>
       <c r="F238">
-        <v>3.216461786132309</v>
+        <v>3.057882856504398</v>
       </c>
     </row>
   </sheetData>
